--- a/030_設計ドキュメント/020_サンプル/010_システム機能設計/システム機能設計書(メッセージング)_同期応答_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/010_システム機能設計/システム機能設計書(メッセージング)_同期応答_サンプル.xlsx
@@ -1573,7 +1573,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -2374,6 +2374,15 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2393,6 +2402,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2401,13 +2419,133 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2419,143 +2557,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2566,9 +2569,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2641,6 +2641,195 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2650,206 +2839,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -7190,43 +7190,43 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -7237,7 +7237,7 @@
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -7246,7 +7246,7 @@
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -7258,7 +7258,7 @@
       <c r="K25" s="150"/>
       <c r="L25" s="27"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -7267,7 +7267,7 @@
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -7276,7 +7276,7 @@
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -7285,7 +7285,7 @@
       <c r="K28" s="27"/>
       <c r="L28" s="27"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="27"/>
@@ -7293,7 +7293,7 @@
       <c r="K29" s="27"/>
       <c r="L29" s="27"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -7302,7 +7302,7 @@
       <c r="K30" s="27"/>
       <c r="L30" s="27"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -7311,7 +7311,7 @@
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -7320,7 +7320,7 @@
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="27"/>
@@ -7332,7 +7332,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="27"/>
@@ -7347,515 +7347,515 @@
       <c r="R34" s="34"/>
       <c r="S34" s="34"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="34"/>
       <c r="R35" s="34"/>
       <c r="S35" s="34"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="102"/>
       <c r="P36" s="34"/>
       <c r="Q36" s="102"/>
       <c r="R36" s="34"/>
       <c r="S36" s="100"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="103"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="103"/>
       <c r="R37" s="9"/>
       <c r="S37" s="103"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -7878,170 +7878,170 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="184" t="s">
+    <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="163" t="s">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="209" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="186" t="s">
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="195" t="s">
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="196"/>
-      <c r="U1" s="196"/>
-      <c r="V1" s="196"/>
-      <c r="W1" s="196"/>
-      <c r="X1" s="196"/>
-      <c r="Y1" s="196"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="184" t="s">
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="179"/>
+      <c r="AA1" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="185"/>
-      <c r="AC1" s="166" t="str">
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="193" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="205">
+      <c r="AD1" s="194"/>
+      <c r="AE1" s="194"/>
+      <c r="AF1" s="195"/>
+      <c r="AG1" s="187">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="206"/>
-      <c r="AI1" s="207"/>
+      <c r="AH1" s="188"/>
+      <c r="AI1" s="189"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
       <c r="AM1" s="9"/>
       <c r="AN1" s="10"/>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="184" t="s">
+    <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="163" t="s">
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="209" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="191"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="182"/>
+      <c r="AA2" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="185"/>
-      <c r="AC2" s="208" t="str">
+      <c r="AB2" s="167"/>
+      <c r="AC2" s="190" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="209"/>
-      <c r="AE2" s="209"/>
-      <c r="AF2" s="210"/>
-      <c r="AG2" s="205" t="str">
+      <c r="AD2" s="191"/>
+      <c r="AE2" s="191"/>
+      <c r="AF2" s="192"/>
+      <c r="AG2" s="187" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="206"/>
-      <c r="AI2" s="207"/>
+      <c r="AH2" s="188"/>
+      <c r="AI2" s="189"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="184" t="s">
+    <row r="3" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="163" t="s">
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="209" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="193"/>
-      <c r="Q3" s="193"/>
-      <c r="R3" s="194"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-      <c r="X3" s="202"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="184"/>
-      <c r="AB3" s="185"/>
-      <c r="AC3" s="166"/>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="205"/>
-      <c r="AH3" s="206"/>
-      <c r="AI3" s="207"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="210"/>
+      <c r="K3" s="210"/>
+      <c r="L3" s="210"/>
+      <c r="M3" s="210"/>
+      <c r="N3" s="211"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="184"/>
+      <c r="U3" s="184"/>
+      <c r="V3" s="184"/>
+      <c r="W3" s="184"/>
+      <c r="X3" s="184"/>
+      <c r="Y3" s="184"/>
+      <c r="Z3" s="185"/>
+      <c r="AA3" s="166"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="193"/>
+      <c r="AD3" s="194"/>
+      <c r="AE3" s="194"/>
+      <c r="AF3" s="195"/>
+      <c r="AG3" s="187"/>
+      <c r="AH3" s="188"/>
+      <c r="AI3" s="189"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -8083,7 +8083,7 @@
       <c r="AM4" s="17"/>
       <c r="AN4" s="17"/>
     </row>
-    <row r="5" spans="1:40" s="22" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="22" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -8127,7 +8127,7 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
     </row>
-    <row r="6" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -8169,135 +8169,135 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
     </row>
-    <row r="7" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="170"/>
-      <c r="D7" s="169" t="s">
+      <c r="C7" s="197"/>
+      <c r="D7" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="171"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="169" t="s">
+      <c r="E7" s="198"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="171"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="177" t="s">
+      <c r="H7" s="198"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="202" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="171"/>
-      <c r="L7" s="171"/>
-      <c r="M7" s="171"/>
-      <c r="N7" s="171"/>
-      <c r="O7" s="171"/>
-      <c r="P7" s="170"/>
-      <c r="Q7" s="169" t="s">
+      <c r="K7" s="198"/>
+      <c r="L7" s="198"/>
+      <c r="M7" s="198"/>
+      <c r="N7" s="198"/>
+      <c r="O7" s="198"/>
+      <c r="P7" s="197"/>
+      <c r="Q7" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="171"/>
-      <c r="S7" s="171"/>
-      <c r="T7" s="171"/>
-      <c r="U7" s="171"/>
-      <c r="V7" s="171"/>
-      <c r="W7" s="171"/>
-      <c r="X7" s="171"/>
-      <c r="Y7" s="171"/>
-      <c r="Z7" s="171"/>
-      <c r="AA7" s="171"/>
-      <c r="AB7" s="171"/>
-      <c r="AC7" s="171"/>
-      <c r="AD7" s="171"/>
-      <c r="AE7" s="170"/>
-      <c r="AF7" s="169" t="s">
+      <c r="R7" s="198"/>
+      <c r="S7" s="198"/>
+      <c r="T7" s="198"/>
+      <c r="U7" s="198"/>
+      <c r="V7" s="198"/>
+      <c r="W7" s="198"/>
+      <c r="X7" s="198"/>
+      <c r="Y7" s="198"/>
+      <c r="Z7" s="198"/>
+      <c r="AA7" s="198"/>
+      <c r="AB7" s="198"/>
+      <c r="AC7" s="198"/>
+      <c r="AD7" s="198"/>
+      <c r="AE7" s="197"/>
+      <c r="AF7" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="AG7" s="171"/>
-      <c r="AH7" s="171"/>
-      <c r="AI7" s="170"/>
+      <c r="AG7" s="198"/>
+      <c r="AH7" s="198"/>
+      <c r="AI7" s="197"/>
       <c r="AJ7" s="35"/>
       <c r="AK7" s="35"/>
       <c r="AL7" s="35"/>
       <c r="AM7" s="35"/>
       <c r="AN7" s="35"/>
     </row>
-    <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1">
+    <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25">
         <v>1</v>
       </c>
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="173"/>
-      <c r="D8" s="174">
+      <c r="C8" s="153"/>
+      <c r="D8" s="199">
         <v>43336</v>
       </c>
-      <c r="E8" s="175"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="172" t="s">
+      <c r="E8" s="200"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="211"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="178" t="s">
+      <c r="H8" s="152"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="203" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179"/>
-      <c r="M8" s="179"/>
-      <c r="N8" s="179"/>
-      <c r="O8" s="179"/>
-      <c r="P8" s="180"/>
-      <c r="Q8" s="181" t="s">
+      <c r="K8" s="204"/>
+      <c r="L8" s="204"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="204"/>
+      <c r="P8" s="205"/>
+      <c r="Q8" s="206" t="s">
         <v>74</v>
       </c>
-      <c r="R8" s="182"/>
-      <c r="S8" s="182"/>
-      <c r="T8" s="182"/>
-      <c r="U8" s="182"/>
-      <c r="V8" s="182"/>
-      <c r="W8" s="182"/>
-      <c r="X8" s="182"/>
-      <c r="Y8" s="182"/>
-      <c r="Z8" s="182"/>
-      <c r="AA8" s="182"/>
-      <c r="AB8" s="182"/>
-      <c r="AC8" s="182"/>
-      <c r="AD8" s="182"/>
-      <c r="AE8" s="183"/>
-      <c r="AF8" s="178" t="s">
+      <c r="R8" s="207"/>
+      <c r="S8" s="207"/>
+      <c r="T8" s="207"/>
+      <c r="U8" s="207"/>
+      <c r="V8" s="207"/>
+      <c r="W8" s="207"/>
+      <c r="X8" s="207"/>
+      <c r="Y8" s="207"/>
+      <c r="Z8" s="207"/>
+      <c r="AA8" s="207"/>
+      <c r="AB8" s="207"/>
+      <c r="AC8" s="207"/>
+      <c r="AD8" s="207"/>
+      <c r="AE8" s="208"/>
+      <c r="AF8" s="203" t="s">
         <v>75</v>
       </c>
-      <c r="AG8" s="179"/>
-      <c r="AH8" s="179"/>
-      <c r="AI8" s="180"/>
+      <c r="AG8" s="204"/>
+      <c r="AH8" s="204"/>
+      <c r="AI8" s="205"/>
       <c r="AJ8" s="35"/>
       <c r="AK8" s="35"/>
       <c r="AL8" s="35"/>
       <c r="AM8" s="35"/>
       <c r="AN8" s="35"/>
     </row>
-    <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="26"/>
-      <c r="B9" s="151"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="158"/>
-      <c r="O9" s="158"/>
-      <c r="P9" s="159"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="164"/>
+      <c r="P9" s="165"/>
       <c r="Q9" s="160"/>
       <c r="R9" s="161"/>
       <c r="S9" s="161"/>
@@ -8313,33 +8313,33 @@
       <c r="AC9" s="161"/>
       <c r="AD9" s="161"/>
       <c r="AE9" s="162"/>
-      <c r="AF9" s="157"/>
-      <c r="AG9" s="158"/>
-      <c r="AH9" s="158"/>
-      <c r="AI9" s="159"/>
+      <c r="AF9" s="163"/>
+      <c r="AG9" s="164"/>
+      <c r="AH9" s="164"/>
+      <c r="AI9" s="165"/>
       <c r="AJ9" s="35"/>
       <c r="AK9" s="35"/>
       <c r="AL9" s="35"/>
       <c r="AM9" s="35"/>
       <c r="AN9" s="35"/>
     </row>
-    <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="26"/>
-      <c r="B10" s="151"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="159"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="164"/>
+      <c r="P10" s="165"/>
       <c r="Q10" s="160"/>
       <c r="R10" s="161"/>
       <c r="S10" s="161"/>
@@ -8355,33 +8355,33 @@
       <c r="AC10" s="161"/>
       <c r="AD10" s="161"/>
       <c r="AE10" s="162"/>
-      <c r="AF10" s="157"/>
-      <c r="AG10" s="158"/>
-      <c r="AH10" s="158"/>
-      <c r="AI10" s="159"/>
+      <c r="AF10" s="163"/>
+      <c r="AG10" s="164"/>
+      <c r="AH10" s="164"/>
+      <c r="AI10" s="165"/>
       <c r="AJ10" s="35"/>
       <c r="AK10" s="35"/>
       <c r="AL10" s="35"/>
       <c r="AM10" s="35"/>
       <c r="AN10" s="35"/>
     </row>
-    <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26"/>
-      <c r="B11" s="151"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="158"/>
-      <c r="N11" s="158"/>
-      <c r="O11" s="158"/>
-      <c r="P11" s="159"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="164"/>
+      <c r="P11" s="165"/>
       <c r="Q11" s="160"/>
       <c r="R11" s="161"/>
       <c r="S11" s="161"/>
@@ -8397,33 +8397,33 @@
       <c r="AC11" s="161"/>
       <c r="AD11" s="161"/>
       <c r="AE11" s="162"/>
-      <c r="AF11" s="157"/>
-      <c r="AG11" s="158"/>
-      <c r="AH11" s="158"/>
-      <c r="AI11" s="159"/>
+      <c r="AF11" s="163"/>
+      <c r="AG11" s="164"/>
+      <c r="AH11" s="164"/>
+      <c r="AI11" s="165"/>
       <c r="AJ11" s="35"/>
       <c r="AK11" s="35"/>
       <c r="AL11" s="35"/>
       <c r="AM11" s="35"/>
       <c r="AN11" s="35"/>
     </row>
-    <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
-      <c r="B12" s="151"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="158"/>
-      <c r="N12" s="158"/>
-      <c r="O12" s="158"/>
-      <c r="P12" s="159"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="165"/>
       <c r="Q12" s="160"/>
       <c r="R12" s="161"/>
       <c r="S12" s="161"/>
@@ -8439,33 +8439,33 @@
       <c r="AC12" s="161"/>
       <c r="AD12" s="161"/>
       <c r="AE12" s="162"/>
-      <c r="AF12" s="157"/>
-      <c r="AG12" s="158"/>
-      <c r="AH12" s="158"/>
-      <c r="AI12" s="159"/>
+      <c r="AF12" s="163"/>
+      <c r="AG12" s="164"/>
+      <c r="AH12" s="164"/>
+      <c r="AI12" s="165"/>
       <c r="AJ12" s="35"/>
       <c r="AK12" s="35"/>
       <c r="AL12" s="35"/>
       <c r="AM12" s="35"/>
       <c r="AN12" s="35"/>
     </row>
-    <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
-      <c r="B13" s="151"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="158"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="158"/>
-      <c r="P13" s="159"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="164"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="164"/>
+      <c r="P13" s="165"/>
       <c r="Q13" s="160"/>
       <c r="R13" s="161"/>
       <c r="S13" s="161"/>
@@ -8481,33 +8481,33 @@
       <c r="AC13" s="161"/>
       <c r="AD13" s="161"/>
       <c r="AE13" s="162"/>
-      <c r="AF13" s="157"/>
-      <c r="AG13" s="158"/>
-      <c r="AH13" s="158"/>
-      <c r="AI13" s="159"/>
+      <c r="AF13" s="163"/>
+      <c r="AG13" s="164"/>
+      <c r="AH13" s="164"/>
+      <c r="AI13" s="165"/>
       <c r="AJ13" s="35"/>
       <c r="AK13" s="35"/>
       <c r="AL13" s="35"/>
       <c r="AM13" s="35"/>
       <c r="AN13" s="35"/>
     </row>
-    <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="158"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="158"/>
-      <c r="P14" s="159"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="164"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="164"/>
+      <c r="P14" s="165"/>
       <c r="Q14" s="160"/>
       <c r="R14" s="161"/>
       <c r="S14" s="161"/>
@@ -8523,33 +8523,33 @@
       <c r="AC14" s="161"/>
       <c r="AD14" s="161"/>
       <c r="AE14" s="162"/>
-      <c r="AF14" s="157"/>
-      <c r="AG14" s="158"/>
-      <c r="AH14" s="158"/>
-      <c r="AI14" s="159"/>
+      <c r="AF14" s="163"/>
+      <c r="AG14" s="164"/>
+      <c r="AH14" s="164"/>
+      <c r="AI14" s="165"/>
       <c r="AJ14" s="35"/>
       <c r="AK14" s="35"/>
       <c r="AL14" s="35"/>
       <c r="AM14" s="35"/>
       <c r="AN14" s="35"/>
     </row>
-    <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="26"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="158"/>
-      <c r="N15" s="158"/>
-      <c r="O15" s="158"/>
-      <c r="P15" s="159"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="165"/>
       <c r="Q15" s="160"/>
       <c r="R15" s="161"/>
       <c r="S15" s="161"/>
@@ -8565,33 +8565,33 @@
       <c r="AC15" s="161"/>
       <c r="AD15" s="161"/>
       <c r="AE15" s="162"/>
-      <c r="AF15" s="157"/>
-      <c r="AG15" s="158"/>
-      <c r="AH15" s="158"/>
-      <c r="AI15" s="159"/>
+      <c r="AF15" s="163"/>
+      <c r="AG15" s="164"/>
+      <c r="AH15" s="164"/>
+      <c r="AI15" s="165"/>
       <c r="AJ15" s="35"/>
       <c r="AK15" s="35"/>
       <c r="AL15" s="35"/>
       <c r="AM15" s="35"/>
       <c r="AN15" s="35"/>
     </row>
-    <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="26"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
-      <c r="P16" s="159"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="165"/>
       <c r="Q16" s="160"/>
       <c r="R16" s="161"/>
       <c r="S16" s="161"/>
@@ -8607,33 +8607,33 @@
       <c r="AC16" s="161"/>
       <c r="AD16" s="161"/>
       <c r="AE16" s="162"/>
-      <c r="AF16" s="157"/>
-      <c r="AG16" s="158"/>
-      <c r="AH16" s="158"/>
-      <c r="AI16" s="159"/>
+      <c r="AF16" s="163"/>
+      <c r="AG16" s="164"/>
+      <c r="AH16" s="164"/>
+      <c r="AI16" s="165"/>
       <c r="AJ16" s="35"/>
       <c r="AK16" s="35"/>
       <c r="AL16" s="35"/>
       <c r="AM16" s="35"/>
       <c r="AN16" s="35"/>
     </row>
-    <row r="17" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="26"/>
-      <c r="B17" s="151"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="158"/>
-      <c r="N17" s="158"/>
-      <c r="O17" s="158"/>
-      <c r="P17" s="159"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="164"/>
+      <c r="L17" s="164"/>
+      <c r="M17" s="164"/>
+      <c r="N17" s="164"/>
+      <c r="O17" s="164"/>
+      <c r="P17" s="165"/>
       <c r="Q17" s="160"/>
       <c r="R17" s="161"/>
       <c r="S17" s="161"/>
@@ -8649,33 +8649,33 @@
       <c r="AC17" s="161"/>
       <c r="AD17" s="161"/>
       <c r="AE17" s="162"/>
-      <c r="AF17" s="157"/>
-      <c r="AG17" s="158"/>
-      <c r="AH17" s="158"/>
-      <c r="AI17" s="159"/>
+      <c r="AF17" s="163"/>
+      <c r="AG17" s="164"/>
+      <c r="AH17" s="164"/>
+      <c r="AI17" s="165"/>
       <c r="AJ17" s="35"/>
       <c r="AK17" s="35"/>
       <c r="AL17" s="35"/>
       <c r="AM17" s="35"/>
       <c r="AN17" s="35"/>
     </row>
-    <row r="18" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
-      <c r="N18" s="158"/>
-      <c r="O18" s="158"/>
-      <c r="P18" s="159"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="164"/>
+      <c r="O18" s="164"/>
+      <c r="P18" s="165"/>
       <c r="Q18" s="160"/>
       <c r="R18" s="161"/>
       <c r="S18" s="161"/>
@@ -8691,33 +8691,33 @@
       <c r="AC18" s="161"/>
       <c r="AD18" s="161"/>
       <c r="AE18" s="162"/>
-      <c r="AF18" s="157"/>
-      <c r="AG18" s="158"/>
-      <c r="AH18" s="158"/>
-      <c r="AI18" s="159"/>
+      <c r="AF18" s="163"/>
+      <c r="AG18" s="164"/>
+      <c r="AH18" s="164"/>
+      <c r="AI18" s="165"/>
       <c r="AJ18" s="35"/>
       <c r="AK18" s="35"/>
       <c r="AL18" s="35"/>
       <c r="AM18" s="35"/>
       <c r="AN18" s="35"/>
     </row>
-    <row r="19" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="26"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="159"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="164"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="164"/>
+      <c r="O19" s="164"/>
+      <c r="P19" s="165"/>
       <c r="Q19" s="160"/>
       <c r="R19" s="161"/>
       <c r="S19" s="161"/>
@@ -8733,33 +8733,33 @@
       <c r="AC19" s="161"/>
       <c r="AD19" s="161"/>
       <c r="AE19" s="162"/>
-      <c r="AF19" s="157"/>
-      <c r="AG19" s="158"/>
-      <c r="AH19" s="158"/>
-      <c r="AI19" s="159"/>
+      <c r="AF19" s="163"/>
+      <c r="AG19" s="164"/>
+      <c r="AH19" s="164"/>
+      <c r="AI19" s="165"/>
       <c r="AJ19" s="35"/>
       <c r="AK19" s="35"/>
       <c r="AL19" s="35"/>
       <c r="AM19" s="35"/>
       <c r="AN19" s="35"/>
     </row>
-    <row r="20" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="158"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="159"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="164"/>
+      <c r="M20" s="164"/>
+      <c r="N20" s="164"/>
+      <c r="O20" s="164"/>
+      <c r="P20" s="165"/>
       <c r="Q20" s="160"/>
       <c r="R20" s="161"/>
       <c r="S20" s="161"/>
@@ -8775,33 +8775,33 @@
       <c r="AC20" s="161"/>
       <c r="AD20" s="161"/>
       <c r="AE20" s="162"/>
-      <c r="AF20" s="157"/>
-      <c r="AG20" s="158"/>
-      <c r="AH20" s="158"/>
-      <c r="AI20" s="159"/>
+      <c r="AF20" s="163"/>
+      <c r="AG20" s="164"/>
+      <c r="AH20" s="164"/>
+      <c r="AI20" s="165"/>
       <c r="AJ20" s="35"/>
       <c r="AK20" s="35"/>
       <c r="AL20" s="35"/>
       <c r="AM20" s="35"/>
       <c r="AN20" s="35"/>
     </row>
-    <row r="21" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="158"/>
-      <c r="P21" s="159"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="164"/>
+      <c r="L21" s="164"/>
+      <c r="M21" s="164"/>
+      <c r="N21" s="164"/>
+      <c r="O21" s="164"/>
+      <c r="P21" s="165"/>
       <c r="Q21" s="160"/>
       <c r="R21" s="161"/>
       <c r="S21" s="161"/>
@@ -8817,33 +8817,33 @@
       <c r="AC21" s="161"/>
       <c r="AD21" s="161"/>
       <c r="AE21" s="162"/>
-      <c r="AF21" s="157"/>
-      <c r="AG21" s="158"/>
-      <c r="AH21" s="158"/>
-      <c r="AI21" s="159"/>
+      <c r="AF21" s="163"/>
+      <c r="AG21" s="164"/>
+      <c r="AH21" s="164"/>
+      <c r="AI21" s="165"/>
       <c r="AJ21" s="35"/>
       <c r="AK21" s="35"/>
       <c r="AL21" s="35"/>
       <c r="AM21" s="35"/>
       <c r="AN21" s="35"/>
     </row>
-    <row r="22" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="158"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
-      <c r="P22" s="159"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
+      <c r="O22" s="164"/>
+      <c r="P22" s="165"/>
       <c r="Q22" s="160"/>
       <c r="R22" s="161"/>
       <c r="S22" s="161"/>
@@ -8859,33 +8859,33 @@
       <c r="AC22" s="161"/>
       <c r="AD22" s="161"/>
       <c r="AE22" s="162"/>
-      <c r="AF22" s="157"/>
-      <c r="AG22" s="158"/>
-      <c r="AH22" s="158"/>
-      <c r="AI22" s="159"/>
+      <c r="AF22" s="163"/>
+      <c r="AG22" s="164"/>
+      <c r="AH22" s="164"/>
+      <c r="AI22" s="165"/>
       <c r="AJ22" s="35"/>
       <c r="AK22" s="35"/>
       <c r="AL22" s="35"/>
       <c r="AM22" s="35"/>
       <c r="AN22" s="35"/>
     </row>
-    <row r="23" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="158"/>
-      <c r="P23" s="159"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="164"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="164"/>
+      <c r="O23" s="164"/>
+      <c r="P23" s="165"/>
       <c r="Q23" s="160"/>
       <c r="R23" s="161"/>
       <c r="S23" s="161"/>
@@ -8901,33 +8901,33 @@
       <c r="AC23" s="161"/>
       <c r="AD23" s="161"/>
       <c r="AE23" s="162"/>
-      <c r="AF23" s="157"/>
-      <c r="AG23" s="158"/>
-      <c r="AH23" s="158"/>
-      <c r="AI23" s="159"/>
+      <c r="AF23" s="163"/>
+      <c r="AG23" s="164"/>
+      <c r="AH23" s="164"/>
+      <c r="AI23" s="165"/>
       <c r="AJ23" s="35"/>
       <c r="AK23" s="35"/>
       <c r="AL23" s="35"/>
       <c r="AM23" s="35"/>
       <c r="AN23" s="35"/>
     </row>
-    <row r="24" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
-      <c r="B24" s="151"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="158"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="158"/>
-      <c r="P24" s="159"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="164"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="164"/>
+      <c r="O24" s="164"/>
+      <c r="P24" s="165"/>
       <c r="Q24" s="160"/>
       <c r="R24" s="161"/>
       <c r="S24" s="161"/>
@@ -8943,33 +8943,33 @@
       <c r="AC24" s="161"/>
       <c r="AD24" s="161"/>
       <c r="AE24" s="162"/>
-      <c r="AF24" s="157"/>
-      <c r="AG24" s="158"/>
-      <c r="AH24" s="158"/>
-      <c r="AI24" s="159"/>
+      <c r="AF24" s="163"/>
+      <c r="AG24" s="164"/>
+      <c r="AH24" s="164"/>
+      <c r="AI24" s="165"/>
       <c r="AJ24" s="35"/>
       <c r="AK24" s="35"/>
       <c r="AL24" s="35"/>
       <c r="AM24" s="35"/>
       <c r="AN24" s="35"/>
     </row>
-    <row r="25" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
-      <c r="B25" s="151"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="159"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="163"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="164"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="164"/>
+      <c r="O25" s="164"/>
+      <c r="P25" s="165"/>
       <c r="Q25" s="160"/>
       <c r="R25" s="161"/>
       <c r="S25" s="161"/>
@@ -8985,33 +8985,33 @@
       <c r="AC25" s="161"/>
       <c r="AD25" s="161"/>
       <c r="AE25" s="162"/>
-      <c r="AF25" s="157"/>
-      <c r="AG25" s="158"/>
-      <c r="AH25" s="158"/>
-      <c r="AI25" s="159"/>
+      <c r="AF25" s="163"/>
+      <c r="AG25" s="164"/>
+      <c r="AH25" s="164"/>
+      <c r="AI25" s="165"/>
       <c r="AJ25" s="35"/>
       <c r="AK25" s="35"/>
       <c r="AL25" s="35"/>
       <c r="AM25" s="35"/>
       <c r="AN25" s="35"/>
     </row>
-    <row r="26" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="26"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="158"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="159"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="164"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="164"/>
+      <c r="O26" s="164"/>
+      <c r="P26" s="165"/>
       <c r="Q26" s="160"/>
       <c r="R26" s="161"/>
       <c r="S26" s="161"/>
@@ -9027,33 +9027,33 @@
       <c r="AC26" s="161"/>
       <c r="AD26" s="161"/>
       <c r="AE26" s="162"/>
-      <c r="AF26" s="157"/>
-      <c r="AG26" s="158"/>
-      <c r="AH26" s="158"/>
-      <c r="AI26" s="159"/>
+      <c r="AF26" s="163"/>
+      <c r="AG26" s="164"/>
+      <c r="AH26" s="164"/>
+      <c r="AI26" s="165"/>
       <c r="AJ26" s="35"/>
       <c r="AK26" s="35"/>
       <c r="AL26" s="35"/>
       <c r="AM26" s="35"/>
       <c r="AN26" s="35"/>
     </row>
-    <row r="27" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="26"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="158"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="159"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="164"/>
+      <c r="L27" s="164"/>
+      <c r="M27" s="164"/>
+      <c r="N27" s="164"/>
+      <c r="O27" s="164"/>
+      <c r="P27" s="165"/>
       <c r="Q27" s="160"/>
       <c r="R27" s="161"/>
       <c r="S27" s="161"/>
@@ -9069,33 +9069,33 @@
       <c r="AC27" s="161"/>
       <c r="AD27" s="161"/>
       <c r="AE27" s="162"/>
-      <c r="AF27" s="157"/>
-      <c r="AG27" s="158"/>
-      <c r="AH27" s="158"/>
-      <c r="AI27" s="159"/>
+      <c r="AF27" s="163"/>
+      <c r="AG27" s="164"/>
+      <c r="AH27" s="164"/>
+      <c r="AI27" s="165"/>
       <c r="AJ27" s="35"/>
       <c r="AK27" s="35"/>
       <c r="AL27" s="35"/>
       <c r="AM27" s="35"/>
       <c r="AN27" s="35"/>
     </row>
-    <row r="28" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
-      <c r="B28" s="151"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="158"/>
-      <c r="M28" s="158"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="158"/>
-      <c r="P28" s="159"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="164"/>
+      <c r="L28" s="164"/>
+      <c r="M28" s="164"/>
+      <c r="N28" s="164"/>
+      <c r="O28" s="164"/>
+      <c r="P28" s="165"/>
       <c r="Q28" s="160"/>
       <c r="R28" s="161"/>
       <c r="S28" s="161"/>
@@ -9111,33 +9111,33 @@
       <c r="AC28" s="161"/>
       <c r="AD28" s="161"/>
       <c r="AE28" s="162"/>
-      <c r="AF28" s="157"/>
-      <c r="AG28" s="158"/>
-      <c r="AH28" s="158"/>
-      <c r="AI28" s="159"/>
+      <c r="AF28" s="163"/>
+      <c r="AG28" s="164"/>
+      <c r="AH28" s="164"/>
+      <c r="AI28" s="165"/>
       <c r="AJ28" s="35"/>
       <c r="AK28" s="35"/>
       <c r="AL28" s="35"/>
       <c r="AM28" s="35"/>
       <c r="AN28" s="35"/>
     </row>
-    <row r="29" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26"/>
-      <c r="B29" s="151"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="158"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="158"/>
-      <c r="P29" s="159"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="164"/>
+      <c r="M29" s="164"/>
+      <c r="N29" s="164"/>
+      <c r="O29" s="164"/>
+      <c r="P29" s="165"/>
       <c r="Q29" s="160"/>
       <c r="R29" s="161"/>
       <c r="S29" s="161"/>
@@ -9153,33 +9153,33 @@
       <c r="AC29" s="161"/>
       <c r="AD29" s="161"/>
       <c r="AE29" s="162"/>
-      <c r="AF29" s="157"/>
-      <c r="AG29" s="158"/>
-      <c r="AH29" s="158"/>
-      <c r="AI29" s="159"/>
+      <c r="AF29" s="163"/>
+      <c r="AG29" s="164"/>
+      <c r="AH29" s="164"/>
+      <c r="AI29" s="165"/>
       <c r="AJ29" s="35"/>
       <c r="AK29" s="35"/>
       <c r="AL29" s="35"/>
       <c r="AM29" s="35"/>
       <c r="AN29" s="35"/>
     </row>
-    <row r="30" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="26"/>
-      <c r="B30" s="151"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="158"/>
-      <c r="N30" s="158"/>
-      <c r="O30" s="158"/>
-      <c r="P30" s="159"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="164"/>
+      <c r="M30" s="164"/>
+      <c r="N30" s="164"/>
+      <c r="O30" s="164"/>
+      <c r="P30" s="165"/>
       <c r="Q30" s="160"/>
       <c r="R30" s="161"/>
       <c r="S30" s="161"/>
@@ -9195,33 +9195,33 @@
       <c r="AC30" s="161"/>
       <c r="AD30" s="161"/>
       <c r="AE30" s="162"/>
-      <c r="AF30" s="157"/>
-      <c r="AG30" s="158"/>
-      <c r="AH30" s="158"/>
-      <c r="AI30" s="159"/>
+      <c r="AF30" s="163"/>
+      <c r="AG30" s="164"/>
+      <c r="AH30" s="164"/>
+      <c r="AI30" s="165"/>
       <c r="AJ30" s="35"/>
       <c r="AK30" s="35"/>
       <c r="AL30" s="35"/>
       <c r="AM30" s="35"/>
       <c r="AN30" s="35"/>
     </row>
-    <row r="31" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
-      <c r="P31" s="159"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="164"/>
+      <c r="L31" s="164"/>
+      <c r="M31" s="164"/>
+      <c r="N31" s="164"/>
+      <c r="O31" s="164"/>
+      <c r="P31" s="165"/>
       <c r="Q31" s="160"/>
       <c r="R31" s="161"/>
       <c r="S31" s="161"/>
@@ -9237,33 +9237,33 @@
       <c r="AC31" s="161"/>
       <c r="AD31" s="161"/>
       <c r="AE31" s="162"/>
-      <c r="AF31" s="157"/>
-      <c r="AG31" s="158"/>
-      <c r="AH31" s="158"/>
-      <c r="AI31" s="159"/>
+      <c r="AF31" s="163"/>
+      <c r="AG31" s="164"/>
+      <c r="AH31" s="164"/>
+      <c r="AI31" s="165"/>
       <c r="AJ31" s="35"/>
       <c r="AK31" s="35"/>
       <c r="AL31" s="35"/>
       <c r="AM31" s="35"/>
       <c r="AN31" s="35"/>
     </row>
-    <row r="32" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="26"/>
-      <c r="B32" s="151"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="158"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="158"/>
-      <c r="P32" s="159"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="163"/>
+      <c r="K32" s="164"/>
+      <c r="L32" s="164"/>
+      <c r="M32" s="164"/>
+      <c r="N32" s="164"/>
+      <c r="O32" s="164"/>
+      <c r="P32" s="165"/>
       <c r="Q32" s="160"/>
       <c r="R32" s="161"/>
       <c r="S32" s="161"/>
@@ -9279,33 +9279,33 @@
       <c r="AC32" s="161"/>
       <c r="AD32" s="161"/>
       <c r="AE32" s="162"/>
-      <c r="AF32" s="157"/>
-      <c r="AG32" s="158"/>
-      <c r="AH32" s="158"/>
-      <c r="AI32" s="159"/>
+      <c r="AF32" s="163"/>
+      <c r="AG32" s="164"/>
+      <c r="AH32" s="164"/>
+      <c r="AI32" s="165"/>
       <c r="AJ32" s="35"/>
       <c r="AK32" s="35"/>
       <c r="AL32" s="35"/>
       <c r="AM32" s="35"/>
       <c r="AN32" s="35"/>
     </row>
-    <row r="33" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26"/>
-      <c r="B33" s="151"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="152"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="159"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="163"/>
+      <c r="K33" s="164"/>
+      <c r="L33" s="164"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="164"/>
+      <c r="O33" s="164"/>
+      <c r="P33" s="165"/>
       <c r="Q33" s="160"/>
       <c r="R33" s="161"/>
       <c r="S33" s="161"/>
@@ -9321,17 +9321,17 @@
       <c r="AC33" s="161"/>
       <c r="AD33" s="161"/>
       <c r="AE33" s="162"/>
-      <c r="AF33" s="157"/>
-      <c r="AG33" s="158"/>
-      <c r="AH33" s="158"/>
-      <c r="AI33" s="159"/>
+      <c r="AF33" s="163"/>
+      <c r="AG33" s="164"/>
+      <c r="AH33" s="164"/>
+      <c r="AI33" s="165"/>
       <c r="AJ33" s="35"/>
       <c r="AK33" s="35"/>
       <c r="AL33" s="35"/>
       <c r="AM33" s="35"/>
       <c r="AN33" s="35"/>
     </row>
-    <row r="34" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -9373,7 +9373,7 @@
       <c r="AM34" s="35"/>
       <c r="AN34" s="35"/>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -9415,7 +9415,7 @@
       <c r="AM35" s="17"/>
       <c r="AN35" s="17"/>
     </row>
-    <row r="36" spans="1:40">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -9457,7 +9457,7 @@
       <c r="AM36" s="17"/>
       <c r="AN36" s="17"/>
     </row>
-    <row r="37" spans="1:40">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -9499,7 +9499,7 @@
       <c r="AM37" s="17"/>
       <c r="AN37" s="17"/>
     </row>
-    <row r="38" spans="1:40">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -9541,7 +9541,7 @@
       <c r="AM38" s="17"/>
       <c r="AN38" s="17"/>
     </row>
-    <row r="39" spans="1:40">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -9583,7 +9583,7 @@
       <c r="AM39" s="17"/>
       <c r="AN39" s="17"/>
     </row>
-    <row r="40" spans="1:40">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -9627,40 +9627,127 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
@@ -9685,127 +9772,40 @@
     <mergeCell ref="Q10:AE10"/>
     <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="J11:P11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -9824,7 +9824,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="45" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="46" customWidth="1"/>
@@ -9959,32 +9959,32 @@
     <col min="16163" max="16384" width="4.83203125" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="36" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="184" t="s">
+    <row r="1" spans="1:35" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="215" t="str">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="186" t="s">
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="188"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="170"/>
       <c r="S1" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書
@@ -9997,48 +9997,48 @@
       <c r="X1" s="217"/>
       <c r="Y1" s="217"/>
       <c r="Z1" s="218"/>
-      <c r="AA1" s="184" t="s">
+      <c r="AA1" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="185"/>
-      <c r="AC1" s="166" t="str">
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="212">
+      <c r="AD1" s="194"/>
+      <c r="AE1" s="194"/>
+      <c r="AF1" s="195"/>
+      <c r="AG1" s="213">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="213"/>
-      <c r="AI1" s="214"/>
-    </row>
-    <row r="2" spans="1:35" s="36" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="184" t="s">
+      <c r="AH1" s="214"/>
+      <c r="AI1" s="215"/>
+    </row>
+    <row r="2" spans="1:35" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="215" t="str">
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="191"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="173"/>
       <c r="S2" s="219"/>
       <c r="T2" s="220"/>
       <c r="U2" s="220"/>
@@ -10047,48 +10047,48 @@
       <c r="X2" s="220"/>
       <c r="Y2" s="220"/>
       <c r="Z2" s="221"/>
-      <c r="AA2" s="184" t="s">
+      <c r="AA2" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="185"/>
-      <c r="AC2" s="166" t="str">
+      <c r="AB2" s="167"/>
+      <c r="AC2" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="212" t="str">
+      <c r="AD2" s="194"/>
+      <c r="AE2" s="194"/>
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-    </row>
-    <row r="3" spans="1:35" s="36" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="184" t="s">
+      <c r="AH2" s="214"/>
+      <c r="AI2" s="215"/>
+    </row>
+    <row r="3" spans="1:35" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="215" t="str">
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="193"/>
-      <c r="Q3" s="193"/>
-      <c r="R3" s="194"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="210"/>
+      <c r="K3" s="210"/>
+      <c r="L3" s="210"/>
+      <c r="M3" s="210"/>
+      <c r="N3" s="211"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="176"/>
       <c r="S3" s="222"/>
       <c r="T3" s="223"/>
       <c r="U3" s="223"/>
@@ -10097,23 +10097,23 @@
       <c r="X3" s="223"/>
       <c r="Y3" s="223"/>
       <c r="Z3" s="224"/>
-      <c r="AA3" s="184"/>
-      <c r="AB3" s="185"/>
-      <c r="AC3" s="166" t="str">
+      <c r="AA3" s="166"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="212" t="str">
+      <c r="AD3" s="194"/>
+      <c r="AE3" s="194"/>
+      <c r="AF3" s="195"/>
+      <c r="AG3" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="213"/>
-      <c r="AI3" s="214"/>
-    </row>
-    <row r="4" spans="1:35" s="84" customFormat="1" ht="19.5" customHeight="1">
+      <c r="AH3" s="214"/>
+      <c r="AI3" s="215"/>
+    </row>
+    <row r="4" spans="1:35" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="73"/>
       <c r="B4" s="73"/>
       <c r="C4" s="73"/>
@@ -10150,7 +10150,7 @@
       <c r="AH4" s="73"/>
       <c r="AI4" s="73"/>
     </row>
-    <row r="5" spans="1:35" s="84" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="73"/>
       <c r="B5" s="73"/>
       <c r="C5" s="73"/>
@@ -10189,7 +10189,7 @@
       <c r="AH5" s="73"/>
       <c r="AI5" s="73"/>
     </row>
-    <row r="6" spans="1:35" s="84" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="73"/>
       <c r="B6" s="73"/>
       <c r="C6" s="73"/>
@@ -10226,7 +10226,7 @@
       <c r="AH6" s="73"/>
       <c r="AI6" s="73"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18"/>
       <c r="B7" s="43" t="s">
         <v>23</v>
@@ -10265,7 +10265,7 @@
       <c r="AH7" s="76"/>
       <c r="AI7" s="75"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
@@ -10304,7 +10304,7 @@
       <c r="AH8" s="82"/>
       <c r="AI8" s="75"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18"/>
       <c r="B9" s="71"/>
       <c r="C9" s="43" t="s">
@@ -10343,7 +10343,7 @@
       <c r="AH9" s="81"/>
       <c r="AI9" s="18"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
       <c r="B10" s="71"/>
       <c r="C10" s="71"/>
@@ -10380,7 +10380,7 @@
       <c r="AH10" s="76"/>
       <c r="AI10" s="75"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
       <c r="B11" s="39" t="s">
         <v>76</v>
@@ -10419,7 +10419,7 @@
       <c r="AH11" s="76"/>
       <c r="AI11" s="75"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18"/>
       <c r="B12" s="71"/>
       <c r="C12" s="39" t="s">
@@ -10458,7 +10458,7 @@
       <c r="AH12" s="76"/>
       <c r="AI12" s="75"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18"/>
       <c r="B13" s="71"/>
       <c r="C13" s="80" t="s">
@@ -10493,7 +10493,7 @@
       <c r="AH13" s="76"/>
       <c r="AI13" s="75"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18"/>
       <c r="B14" s="75"/>
       <c r="C14" s="39" t="s">
@@ -10532,7 +10532,7 @@
       <c r="AH14" s="76"/>
       <c r="AI14" s="75"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="39"/>
       <c r="C15" s="80" t="s">
@@ -10571,7 +10571,7 @@
       <c r="AH15" s="76"/>
       <c r="AI15" s="75"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39" t="s">
@@ -10607,7 +10607,7 @@
       <c r="AH16" s="76"/>
       <c r="AI16" s="75"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="73"/>
       <c r="C17" s="39"/>
@@ -10644,7 +10644,7 @@
       <c r="AH17" s="76"/>
       <c r="AI17" s="75"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="73"/>
       <c r="C18" s="18"/>
@@ -10681,7 +10681,7 @@
       <c r="AH18" s="76"/>
       <c r="AI18" s="75"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
       <c r="B19" s="73"/>
       <c r="C19" s="18"/>
@@ -10718,7 +10718,7 @@
       <c r="AH19" s="76"/>
       <c r="AI19" s="75"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
       <c r="B20" s="73"/>
       <c r="C20" s="18"/>
@@ -10755,7 +10755,7 @@
       <c r="AH20" s="76"/>
       <c r="AI20" s="75"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
       <c r="B21" s="73"/>
       <c r="C21" s="18"/>
@@ -10792,7 +10792,7 @@
       <c r="AH21" s="76"/>
       <c r="AI21" s="75"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
       <c r="B22" s="73"/>
       <c r="C22" s="18"/>
@@ -10829,7 +10829,7 @@
       <c r="AH22" s="76"/>
       <c r="AI22" s="75"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18"/>
       <c r="B23" s="79"/>
       <c r="C23" s="71"/>
@@ -10866,7 +10866,7 @@
       <c r="AH23" s="76"/>
       <c r="AI23" s="75"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18"/>
       <c r="B24" s="73"/>
       <c r="C24" s="18"/>
@@ -10903,7 +10903,7 @@
       <c r="AH24" s="76"/>
       <c r="AI24" s="75"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18"/>
       <c r="B25" s="73"/>
       <c r="C25" s="18"/>
@@ -10940,7 +10940,7 @@
       <c r="AH25" s="76"/>
       <c r="AI25" s="75"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18"/>
       <c r="B26" s="73"/>
       <c r="C26" s="18"/>
@@ -10977,7 +10977,7 @@
       <c r="AH26" s="76"/>
       <c r="AI26" s="75"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18"/>
       <c r="B27" s="73"/>
       <c r="C27" s="18"/>
@@ -11014,7 +11014,7 @@
       <c r="AH27" s="76"/>
       <c r="AI27" s="75"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18"/>
       <c r="B28" s="73"/>
       <c r="C28" s="18"/>
@@ -11051,7 +11051,7 @@
       <c r="AH28" s="76"/>
       <c r="AI28" s="75"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="18"/>
       <c r="B29" s="73"/>
       <c r="C29" s="18"/>
@@ -11088,7 +11088,7 @@
       <c r="AH29" s="76"/>
       <c r="AI29" s="75"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="59"/>
       <c r="B30" s="73"/>
       <c r="C30" s="73"/>
@@ -11125,7 +11125,7 @@
       <c r="AH30" s="64"/>
       <c r="AI30" s="61"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="59"/>
       <c r="B31" s="73"/>
       <c r="C31" s="74"/>
@@ -11162,7 +11162,7 @@
       <c r="AH31" s="64"/>
       <c r="AI31" s="61"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="59"/>
       <c r="B32" s="63"/>
       <c r="C32" s="18"/>
@@ -11199,7 +11199,7 @@
       <c r="AH32" s="64"/>
       <c r="AI32" s="61"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="59"/>
       <c r="B33" s="63"/>
       <c r="C33" s="18"/>
@@ -11236,7 +11236,7 @@
       <c r="AH33" s="64"/>
       <c r="AI33" s="61"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="59"/>
       <c r="B34" s="63"/>
       <c r="C34" s="18"/>
@@ -11273,7 +11273,7 @@
       <c r="AH34" s="64"/>
       <c r="AI34" s="61"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="59"/>
       <c r="B35" s="63"/>
       <c r="C35" s="18"/>
@@ -11310,7 +11310,7 @@
       <c r="AH35" s="64"/>
       <c r="AI35" s="61"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="59"/>
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
@@ -11347,7 +11347,7 @@
       <c r="AH36" s="60"/>
       <c r="AI36" s="59"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="47"/>
       <c r="E37" s="47"/>
       <c r="F37" s="47"/>
@@ -11379,7 +11379,7 @@
       <c r="AH37" s="55"/>
       <c r="AI37" s="50"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S38" s="50"/>
       <c r="T38" s="50"/>
       <c r="U38" s="54"/>
@@ -11398,7 +11398,7 @@
       <c r="AH38" s="51"/>
       <c r="AI38" s="50"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q39" s="48"/>
       <c r="S39" s="50"/>
       <c r="T39" s="54"/>
@@ -11418,7 +11418,7 @@
       <c r="AH39" s="51"/>
       <c r="AI39" s="50"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S40" s="50"/>
       <c r="T40" s="50"/>
       <c r="U40" s="50"/>
@@ -11437,7 +11437,7 @@
       <c r="AH40" s="51"/>
       <c r="AI40" s="50"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J41" s="47"/>
       <c r="K41" s="47"/>
       <c r="L41" s="47"/>
@@ -11451,37 +11451,37 @@
       <c r="AH41" s="51"/>
       <c r="AI41" s="50"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE42" s="50"/>
       <c r="AF42" s="52"/>
       <c r="AG42" s="53"/>
       <c r="AH42" s="51"/>
       <c r="AI42" s="50"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE43" s="50"/>
       <c r="AF43" s="52"/>
       <c r="AG43" s="52"/>
       <c r="AH43" s="51"/>
       <c r="AI43" s="50"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="47"/>
       <c r="AF44" s="49"/>
       <c r="AG44" s="49"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="47"/>
       <c r="AG45" s="49"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF46" s="49"/>
       <c r="AG46" s="49"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG47" s="49"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S48" s="47"/>
       <c r="T48" s="47"/>
       <c r="V48" s="47"/>
@@ -11494,7 +11494,7 @@
       <c r="AC48" s="47"/>
       <c r="AD48" s="47"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1">
+    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R49" s="47"/>
       <c r="S49" s="47"/>
       <c r="T49" s="47"/>
@@ -11509,10 +11509,10 @@
       <c r="AD49" s="47"/>
       <c r="AG49" s="49"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R50" s="47"/>
     </row>
-    <row r="51" spans="1:34" s="47" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:34" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="45"/>
       <c r="B51" s="45"/>
       <c r="C51" s="45"/>
@@ -11545,7 +11545,7 @@
       <c r="AD51" s="45"/>
       <c r="AH51" s="48"/>
     </row>
-    <row r="52" spans="1:34" s="47" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:34" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="45"/>
       <c r="B52" s="45"/>
       <c r="C52" s="45"/>
@@ -11580,14 +11580,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -11597,6 +11589,14 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -11616,37 +11616,37 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="184" t="s">
+    <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="215" t="str">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="186" t="s">
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="188"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="170"/>
       <c r="S1" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書
@@ -11659,48 +11659,48 @@
       <c r="X1" s="217"/>
       <c r="Y1" s="217"/>
       <c r="Z1" s="218"/>
-      <c r="AA1" s="184" t="s">
+      <c r="AA1" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="185"/>
-      <c r="AC1" s="166" t="str">
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="212">
+      <c r="AD1" s="194"/>
+      <c r="AE1" s="194"/>
+      <c r="AF1" s="195"/>
+      <c r="AG1" s="213">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="213"/>
-      <c r="AI1" s="214"/>
-    </row>
-    <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="184" t="s">
+      <c r="AH1" s="214"/>
+      <c r="AI1" s="215"/>
+    </row>
+    <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="215" t="str">
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="191"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="173"/>
       <c r="S2" s="219"/>
       <c r="T2" s="220"/>
       <c r="U2" s="220"/>
@@ -11709,48 +11709,48 @@
       <c r="X2" s="220"/>
       <c r="Y2" s="220"/>
       <c r="Z2" s="221"/>
-      <c r="AA2" s="184" t="s">
+      <c r="AA2" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="185"/>
-      <c r="AC2" s="166" t="str">
+      <c r="AB2" s="167"/>
+      <c r="AC2" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="212" t="str">
+      <c r="AD2" s="194"/>
+      <c r="AE2" s="194"/>
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-    </row>
-    <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="184" t="s">
+      <c r="AH2" s="214"/>
+      <c r="AI2" s="215"/>
+    </row>
+    <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="215" t="str">
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="193"/>
-      <c r="Q3" s="193"/>
-      <c r="R3" s="194"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="210"/>
+      <c r="K3" s="210"/>
+      <c r="L3" s="210"/>
+      <c r="M3" s="210"/>
+      <c r="N3" s="211"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="176"/>
       <c r="S3" s="222"/>
       <c r="T3" s="223"/>
       <c r="U3" s="223"/>
@@ -11759,24 +11759,24 @@
       <c r="X3" s="223"/>
       <c r="Y3" s="223"/>
       <c r="Z3" s="224"/>
-      <c r="AA3" s="184"/>
-      <c r="AB3" s="185"/>
-      <c r="AC3" s="166" t="str">
+      <c r="AA3" s="166"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="212" t="str">
+      <c r="AD3" s="194"/>
+      <c r="AE3" s="194"/>
+      <c r="AF3" s="195"/>
+      <c r="AG3" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="213"/>
-      <c r="AI3" s="214"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1"/>
-    <row r="5" spans="1:35" ht="12" customHeight="1">
+      <c r="AH3" s="214"/>
+      <c r="AI3" s="215"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
         <v>23</v>
       </c>
@@ -11813,7 +11813,7 @@
       <c r="AG5" s="37"/>
       <c r="AH5" s="37"/>
     </row>
-    <row r="6" spans="1:35" ht="12" customHeight="1">
+    <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="37"/>
       <c r="C6" s="37" t="s">
         <v>24</v>
@@ -11850,7 +11850,7 @@
       <c r="AG6" s="37"/>
       <c r="AH6" s="37"/>
     </row>
-    <row r="7" spans="1:35" ht="12" customHeight="1">
+    <row r="7" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -11885,7 +11885,7 @@
       <c r="AG7" s="37"/>
       <c r="AH7" s="37"/>
     </row>
-    <row r="8" spans="1:35" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:35" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="37"/>
       <c r="D8" s="234" t="s">
         <v>16</v>
@@ -11923,7 +11923,7 @@
       <c r="AG8" s="232"/>
       <c r="AH8" s="232"/>
     </row>
-    <row r="9" spans="1:35" s="20" customFormat="1">
+    <row r="9" spans="1:35" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="37"/>
       <c r="D9" s="234" t="s">
         <v>25</v>
@@ -11961,7 +11961,7 @@
       <c r="AG9" s="233"/>
       <c r="AH9" s="233"/>
     </row>
-    <row r="10" spans="1:35" ht="11.25" customHeight="1">
+    <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="37"/>
       <c r="D10" s="225" t="s">
         <v>65</v>
@@ -11999,7 +11999,7 @@
       <c r="AG10" s="105"/>
       <c r="AH10" s="106"/>
     </row>
-    <row r="11" spans="1:35" s="19" customFormat="1">
+    <row r="11" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="37"/>
       <c r="D11" s="237"/>
       <c r="E11" s="238"/>
@@ -12035,7 +12035,7 @@
       <c r="AG11" s="38"/>
       <c r="AH11" s="108"/>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B12" s="37"/>
       <c r="D12" s="228"/>
       <c r="E12" s="229"/>
@@ -12069,7 +12069,7 @@
       <c r="AG12" s="110"/>
       <c r="AH12" s="111"/>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B13" s="37"/>
       <c r="D13" s="225" t="s">
         <v>14</v>
@@ -12107,7 +12107,7 @@
       <c r="AG13" s="113"/>
       <c r="AH13" s="114"/>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B14" s="37"/>
       <c r="D14" s="228"/>
       <c r="E14" s="229"/>
@@ -12143,6 +12143,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D13:G14"/>
+    <mergeCell ref="H8:AH8"/>
+    <mergeCell ref="H9:AH9"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G12"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
@@ -12154,18 +12166,6 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="D13:G14"/>
-    <mergeCell ref="H8:AH8"/>
-    <mergeCell ref="H9:AH9"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G12"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -12186,37 +12186,37 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="184" t="s">
+    <row r="1" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="215" t="str">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="186" t="s">
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="188"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="170"/>
       <c r="S1" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書
@@ -12229,48 +12229,48 @@
       <c r="X1" s="217"/>
       <c r="Y1" s="217"/>
       <c r="Z1" s="218"/>
-      <c r="AA1" s="184" t="s">
+      <c r="AA1" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="185"/>
-      <c r="AC1" s="166" t="str">
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="212">
+      <c r="AD1" s="194"/>
+      <c r="AE1" s="194"/>
+      <c r="AF1" s="195"/>
+      <c r="AG1" s="213">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="213"/>
-      <c r="AI1" s="214"/>
-    </row>
-    <row r="2" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="184" t="s">
+      <c r="AH1" s="214"/>
+      <c r="AI1" s="215"/>
+    </row>
+    <row r="2" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="215" t="str">
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="191"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="173"/>
       <c r="S2" s="219"/>
       <c r="T2" s="220"/>
       <c r="U2" s="220"/>
@@ -12279,48 +12279,48 @@
       <c r="X2" s="220"/>
       <c r="Y2" s="220"/>
       <c r="Z2" s="221"/>
-      <c r="AA2" s="184" t="s">
+      <c r="AA2" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="185"/>
-      <c r="AC2" s="166" t="str">
+      <c r="AB2" s="167"/>
+      <c r="AC2" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="212" t="str">
+      <c r="AD2" s="194"/>
+      <c r="AE2" s="194"/>
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-    </row>
-    <row r="3" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="184" t="s">
+      <c r="AH2" s="214"/>
+      <c r="AI2" s="215"/>
+    </row>
+    <row r="3" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="215" t="str">
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="193"/>
-      <c r="Q3" s="193"/>
-      <c r="R3" s="194"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="210"/>
+      <c r="K3" s="210"/>
+      <c r="L3" s="210"/>
+      <c r="M3" s="210"/>
+      <c r="N3" s="211"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="176"/>
       <c r="S3" s="222"/>
       <c r="T3" s="223"/>
       <c r="U3" s="223"/>
@@ -12329,39 +12329,31 @@
       <c r="X3" s="223"/>
       <c r="Y3" s="223"/>
       <c r="Z3" s="224"/>
-      <c r="AA3" s="184"/>
-      <c r="AB3" s="185"/>
-      <c r="AC3" s="166" t="str">
+      <c r="AA3" s="166"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="212" t="str">
+      <c r="AD3" s="194"/>
+      <c r="AE3" s="194"/>
+      <c r="AF3" s="195"/>
+      <c r="AG3" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="213"/>
-      <c r="AI3" s="214"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1"/>
-    <row r="5" spans="1:35" ht="12" customHeight="1">
+      <c r="AH3" s="214"/>
+      <c r="AI3" s="215"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="86" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="12" customHeight="1"/>
+    <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -12371,6 +12363,14 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -12391,37 +12391,37 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="184" t="s">
+    <row r="1" spans="1:38" s="87" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="215" t="str">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="186" t="s">
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="188"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="170"/>
       <c r="S1" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書
@@ -12434,51 +12434,51 @@
       <c r="X1" s="217"/>
       <c r="Y1" s="217"/>
       <c r="Z1" s="218"/>
-      <c r="AA1" s="184" t="s">
+      <c r="AA1" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="185"/>
-      <c r="AC1" s="166" t="str">
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="212">
+      <c r="AD1" s="194"/>
+      <c r="AE1" s="194"/>
+      <c r="AF1" s="195"/>
+      <c r="AG1" s="213">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="213"/>
-      <c r="AI1" s="214"/>
+      <c r="AH1" s="214"/>
+      <c r="AI1" s="215"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
-    <row r="2" spans="1:38" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="184" t="s">
+    <row r="2" spans="1:38" s="87" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="215" t="str">
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="191"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="173"/>
       <c r="S2" s="219"/>
       <c r="T2" s="220"/>
       <c r="U2" s="220"/>
@@ -12487,51 +12487,51 @@
       <c r="X2" s="220"/>
       <c r="Y2" s="220"/>
       <c r="Z2" s="221"/>
-      <c r="AA2" s="184" t="s">
+      <c r="AA2" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="185"/>
-      <c r="AC2" s="166" t="str">
+      <c r="AB2" s="167"/>
+      <c r="AC2" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="212" t="str">
+      <c r="AD2" s="194"/>
+      <c r="AE2" s="194"/>
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
+      <c r="AH2" s="214"/>
+      <c r="AI2" s="215"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
-    <row r="3" spans="1:38" s="87" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="184" t="s">
+    <row r="3" spans="1:38" s="87" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="215" t="str">
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="193"/>
-      <c r="Q3" s="193"/>
-      <c r="R3" s="194"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="210"/>
+      <c r="K3" s="210"/>
+      <c r="L3" s="210"/>
+      <c r="M3" s="210"/>
+      <c r="N3" s="211"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="176"/>
       <c r="S3" s="222"/>
       <c r="T3" s="223"/>
       <c r="U3" s="223"/>
@@ -12540,27 +12540,27 @@
       <c r="X3" s="223"/>
       <c r="Y3" s="223"/>
       <c r="Z3" s="224"/>
-      <c r="AA3" s="184"/>
-      <c r="AB3" s="185"/>
-      <c r="AC3" s="166" t="str">
+      <c r="AA3" s="166"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="212" t="str">
+      <c r="AD3" s="194"/>
+      <c r="AE3" s="194"/>
+      <c r="AF3" s="195"/>
+      <c r="AG3" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="213"/>
-      <c r="AI3" s="214"/>
+      <c r="AH3" s="214"/>
+      <c r="AI3" s="215"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
     </row>
-    <row r="4" spans="1:38" ht="12" customHeight="1"/>
-    <row r="5" spans="1:38" s="21" customFormat="1">
+    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
         <v>197</v>
       </c>
@@ -12597,7 +12597,7 @@
       <c r="AG5" s="37"/>
       <c r="AH5" s="37"/>
     </row>
-    <row r="6" spans="1:38" s="21" customFormat="1">
+    <row r="6" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="37"/>
       <c r="C6" s="37" t="s">
         <v>40</v>
@@ -12634,7 +12634,7 @@
       <c r="AG6" s="37"/>
       <c r="AH6" s="37"/>
     </row>
-    <row r="7" spans="1:38" s="21" customFormat="1">
+    <row r="7" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
       <c r="D7" s="89"/>
@@ -12669,68 +12669,68 @@
       <c r="AG7" s="37"/>
       <c r="AH7" s="37"/>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="276" t="s">
+      <c r="D8" s="284" t="s">
         <v>201</v>
       </c>
-      <c r="E8" s="278" t="s">
+      <c r="E8" s="286" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="279"/>
-      <c r="G8" s="279"/>
-      <c r="H8" s="279"/>
-      <c r="I8" s="279"/>
-      <c r="J8" s="280"/>
-      <c r="K8" s="278" t="s">
+      <c r="F8" s="287"/>
+      <c r="G8" s="287"/>
+      <c r="H8" s="287"/>
+      <c r="I8" s="287"/>
+      <c r="J8" s="288"/>
+      <c r="K8" s="286" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="279"/>
-      <c r="M8" s="279"/>
-      <c r="N8" s="280"/>
-      <c r="O8" s="284" t="s">
+      <c r="L8" s="287"/>
+      <c r="M8" s="287"/>
+      <c r="N8" s="288"/>
+      <c r="O8" s="292" t="s">
         <v>43</v>
       </c>
-      <c r="P8" s="291" t="s">
+      <c r="P8" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="292"/>
-      <c r="R8" s="292"/>
-      <c r="S8" s="292"/>
-      <c r="T8" s="292"/>
-      <c r="U8" s="293"/>
-      <c r="V8" s="286" t="s">
+      <c r="Q8" s="282"/>
+      <c r="R8" s="282"/>
+      <c r="S8" s="282"/>
+      <c r="T8" s="282"/>
+      <c r="U8" s="283"/>
+      <c r="V8" s="294" t="s">
         <v>39</v>
       </c>
-      <c r="W8" s="286"/>
-      <c r="X8" s="286"/>
-      <c r="Y8" s="286"/>
-      <c r="Z8" s="286"/>
-      <c r="AA8" s="286"/>
-      <c r="AB8" s="286"/>
-      <c r="AC8" s="286"/>
-      <c r="AD8" s="286"/>
-      <c r="AE8" s="286"/>
-      <c r="AF8" s="286"/>
-      <c r="AG8" s="286"/>
-      <c r="AH8" s="286"/>
-    </row>
-    <row r="9" spans="1:38">
+      <c r="W8" s="294"/>
+      <c r="X8" s="294"/>
+      <c r="Y8" s="294"/>
+      <c r="Z8" s="294"/>
+      <c r="AA8" s="294"/>
+      <c r="AB8" s="294"/>
+      <c r="AC8" s="294"/>
+      <c r="AD8" s="294"/>
+      <c r="AE8" s="294"/>
+      <c r="AF8" s="294"/>
+      <c r="AG8" s="294"/>
+      <c r="AH8" s="294"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
-      <c r="D9" s="277"/>
-      <c r="E9" s="281"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="282"/>
-      <c r="J9" s="283"/>
-      <c r="K9" s="281"/>
-      <c r="L9" s="282"/>
-      <c r="M9" s="282"/>
-      <c r="N9" s="283"/>
-      <c r="O9" s="285"/>
+      <c r="D9" s="285"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="290"/>
+      <c r="J9" s="291"/>
+      <c r="K9" s="289"/>
+      <c r="L9" s="290"/>
+      <c r="M9" s="290"/>
+      <c r="N9" s="291"/>
+      <c r="O9" s="293"/>
       <c r="P9" s="90" t="s">
         <v>45</v>
       </c>
@@ -12743,25 +12743,25 @@
       <c r="S9" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="T9" s="287" t="s">
+      <c r="T9" s="295" t="s">
         <v>49</v>
       </c>
-      <c r="U9" s="288"/>
-      <c r="V9" s="286"/>
-      <c r="W9" s="286"/>
-      <c r="X9" s="286"/>
-      <c r="Y9" s="286"/>
-      <c r="Z9" s="286"/>
-      <c r="AA9" s="286"/>
-      <c r="AB9" s="286"/>
-      <c r="AC9" s="286"/>
-      <c r="AD9" s="286"/>
-      <c r="AE9" s="286"/>
-      <c r="AF9" s="286"/>
-      <c r="AG9" s="286"/>
-      <c r="AH9" s="286"/>
-    </row>
-    <row r="10" spans="1:38">
+      <c r="U9" s="296"/>
+      <c r="V9" s="294"/>
+      <c r="W9" s="294"/>
+      <c r="X9" s="294"/>
+      <c r="Y9" s="294"/>
+      <c r="Z9" s="294"/>
+      <c r="AA9" s="294"/>
+      <c r="AB9" s="294"/>
+      <c r="AC9" s="294"/>
+      <c r="AD9" s="294"/>
+      <c r="AE9" s="294"/>
+      <c r="AF9" s="294"/>
+      <c r="AG9" s="294"/>
+      <c r="AH9" s="294"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
       <c r="D10" s="91">
@@ -12796,10 +12796,10 @@
       <c r="S10" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="T10" s="289" t="s">
+      <c r="T10" s="279" t="s">
         <v>72</v>
       </c>
-      <c r="U10" s="290"/>
+      <c r="U10" s="280"/>
       <c r="V10" s="160"/>
       <c r="W10" s="161"/>
       <c r="X10" s="161"/>
@@ -12814,7 +12814,7 @@
       <c r="AG10" s="161"/>
       <c r="AH10" s="162"/>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
       <c r="D11" s="91">
@@ -12849,10 +12849,10 @@
       <c r="S11" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="T11" s="289" t="s">
+      <c r="T11" s="279" t="s">
         <v>72</v>
       </c>
-      <c r="U11" s="290"/>
+      <c r="U11" s="280"/>
       <c r="V11" s="160"/>
       <c r="W11" s="161"/>
       <c r="X11" s="161"/>
@@ -12867,7 +12867,7 @@
       <c r="AG11" s="161"/>
       <c r="AH11" s="162"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
       <c r="D12" s="91">
@@ -12902,10 +12902,10 @@
       <c r="S12" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="T12" s="289" t="s">
+      <c r="T12" s="279" t="s">
         <v>72</v>
       </c>
-      <c r="U12" s="290"/>
+      <c r="U12" s="280"/>
       <c r="V12" s="160"/>
       <c r="W12" s="161"/>
       <c r="X12" s="161"/>
@@ -12920,7 +12920,7 @@
       <c r="AG12" s="161"/>
       <c r="AH12" s="162"/>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
       <c r="D13" s="91">
@@ -12955,10 +12955,10 @@
       <c r="S13" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="T13" s="289" t="s">
+      <c r="T13" s="279" t="s">
         <v>72</v>
       </c>
-      <c r="U13" s="290"/>
+      <c r="U13" s="280"/>
       <c r="V13" s="160"/>
       <c r="W13" s="161"/>
       <c r="X13" s="161"/>
@@ -12973,7 +12973,7 @@
       <c r="AG13" s="161"/>
       <c r="AH13" s="162"/>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
       <c r="D14" s="118"/>
@@ -13008,7 +13008,7 @@
       <c r="AG14" s="120"/>
       <c r="AH14" s="120"/>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
       <c r="D15" s="118"/>
@@ -13043,7 +13043,7 @@
       <c r="AG15" s="120"/>
       <c r="AH15" s="120"/>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
       <c r="D16" s="89"/>
@@ -13078,7 +13078,7 @@
       <c r="AG16" s="37"/>
       <c r="AH16" s="37"/>
     </row>
-    <row r="17" spans="2:34">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B17" s="42"/>
       <c r="C17" s="38" t="s">
         <v>51</v>
@@ -13115,7 +13115,7 @@
       <c r="AG17" s="88"/>
       <c r="AH17" s="88"/>
     </row>
-    <row r="18" spans="2:34">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B18" s="42"/>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
@@ -13150,48 +13150,48 @@
       <c r="AG18" s="88"/>
       <c r="AH18" s="88"/>
     </row>
-    <row r="19" spans="2:34">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.15">
       <c r="D19" s="149" t="s">
         <v>208</v>
       </c>
-      <c r="E19" s="304" t="s">
+      <c r="E19" s="249" t="s">
         <v>207</v>
       </c>
-      <c r="F19" s="305"/>
-      <c r="G19" s="306"/>
-      <c r="H19" s="307" t="s">
+      <c r="F19" s="250"/>
+      <c r="G19" s="251"/>
+      <c r="H19" s="252" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="308"/>
-      <c r="J19" s="309"/>
-      <c r="K19" s="298" t="s">
+      <c r="I19" s="253"/>
+      <c r="J19" s="254"/>
+      <c r="K19" s="243" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="299"/>
-      <c r="M19" s="299"/>
-      <c r="N19" s="299"/>
-      <c r="O19" s="299"/>
-      <c r="P19" s="299"/>
-      <c r="Q19" s="299"/>
-      <c r="R19" s="299"/>
-      <c r="S19" s="299"/>
-      <c r="T19" s="299"/>
-      <c r="U19" s="299"/>
-      <c r="V19" s="299"/>
-      <c r="W19" s="299"/>
-      <c r="X19" s="299"/>
-      <c r="Y19" s="299"/>
-      <c r="Z19" s="299"/>
-      <c r="AA19" s="299"/>
-      <c r="AB19" s="299"/>
-      <c r="AC19" s="299"/>
-      <c r="AD19" s="299"/>
-      <c r="AE19" s="299"/>
-      <c r="AF19" s="299"/>
-      <c r="AG19" s="299"/>
-      <c r="AH19" s="300"/>
-    </row>
-    <row r="20" spans="2:34" ht="11.25" customHeight="1">
+      <c r="L19" s="244"/>
+      <c r="M19" s="244"/>
+      <c r="N19" s="244"/>
+      <c r="O19" s="244"/>
+      <c r="P19" s="244"/>
+      <c r="Q19" s="244"/>
+      <c r="R19" s="244"/>
+      <c r="S19" s="244"/>
+      <c r="T19" s="244"/>
+      <c r="U19" s="244"/>
+      <c r="V19" s="244"/>
+      <c r="W19" s="244"/>
+      <c r="X19" s="244"/>
+      <c r="Y19" s="244"/>
+      <c r="Z19" s="244"/>
+      <c r="AA19" s="244"/>
+      <c r="AB19" s="244"/>
+      <c r="AC19" s="244"/>
+      <c r="AD19" s="244"/>
+      <c r="AE19" s="244"/>
+      <c r="AF19" s="244"/>
+      <c r="AG19" s="244"/>
+      <c r="AH19" s="245"/>
+    </row>
+    <row r="20" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="91">
         <v>1</v>
       </c>
@@ -13200,39 +13200,39 @@
       </c>
       <c r="F20" s="161"/>
       <c r="G20" s="162"/>
-      <c r="H20" s="301" t="s">
+      <c r="H20" s="246" t="s">
         <v>209</v>
       </c>
       <c r="I20" s="161"/>
       <c r="J20" s="162"/>
-      <c r="K20" s="301" t="s">
+      <c r="K20" s="246" t="s">
         <v>210</v>
       </c>
-      <c r="L20" s="302"/>
-      <c r="M20" s="302"/>
-      <c r="N20" s="302"/>
-      <c r="O20" s="302"/>
-      <c r="P20" s="302"/>
-      <c r="Q20" s="302"/>
-      <c r="R20" s="302"/>
-      <c r="S20" s="302"/>
-      <c r="T20" s="302"/>
-      <c r="U20" s="302"/>
-      <c r="V20" s="302"/>
-      <c r="W20" s="302"/>
-      <c r="X20" s="302"/>
-      <c r="Y20" s="302"/>
-      <c r="Z20" s="302"/>
-      <c r="AA20" s="302"/>
-      <c r="AB20" s="302"/>
-      <c r="AC20" s="302"/>
-      <c r="AD20" s="302"/>
-      <c r="AE20" s="302"/>
-      <c r="AF20" s="302"/>
-      <c r="AG20" s="302"/>
-      <c r="AH20" s="303"/>
-    </row>
-    <row r="21" spans="2:34" ht="24" customHeight="1">
+      <c r="L20" s="247"/>
+      <c r="M20" s="247"/>
+      <c r="N20" s="247"/>
+      <c r="O20" s="247"/>
+      <c r="P20" s="247"/>
+      <c r="Q20" s="247"/>
+      <c r="R20" s="247"/>
+      <c r="S20" s="247"/>
+      <c r="T20" s="247"/>
+      <c r="U20" s="247"/>
+      <c r="V20" s="247"/>
+      <c r="W20" s="247"/>
+      <c r="X20" s="247"/>
+      <c r="Y20" s="247"/>
+      <c r="Z20" s="247"/>
+      <c r="AA20" s="247"/>
+      <c r="AB20" s="247"/>
+      <c r="AC20" s="247"/>
+      <c r="AD20" s="247"/>
+      <c r="AE20" s="247"/>
+      <c r="AF20" s="247"/>
+      <c r="AG20" s="247"/>
+      <c r="AH20" s="248"/>
+    </row>
+    <row r="21" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="91">
         <v>2</v>
       </c>
@@ -13241,39 +13241,39 @@
       </c>
       <c r="F21" s="161"/>
       <c r="G21" s="162"/>
-      <c r="H21" s="301" t="s">
+      <c r="H21" s="246" t="s">
         <v>215</v>
       </c>
       <c r="I21" s="161"/>
       <c r="J21" s="162"/>
-      <c r="K21" s="301" t="s">
+      <c r="K21" s="246" t="s">
         <v>211</v>
       </c>
-      <c r="L21" s="302"/>
-      <c r="M21" s="302"/>
-      <c r="N21" s="302"/>
-      <c r="O21" s="302"/>
-      <c r="P21" s="302"/>
-      <c r="Q21" s="302"/>
-      <c r="R21" s="302"/>
-      <c r="S21" s="302"/>
-      <c r="T21" s="302"/>
-      <c r="U21" s="302"/>
-      <c r="V21" s="302"/>
-      <c r="W21" s="302"/>
-      <c r="X21" s="302"/>
-      <c r="Y21" s="302"/>
-      <c r="Z21" s="302"/>
-      <c r="AA21" s="302"/>
-      <c r="AB21" s="302"/>
-      <c r="AC21" s="302"/>
-      <c r="AD21" s="302"/>
-      <c r="AE21" s="302"/>
-      <c r="AF21" s="302"/>
-      <c r="AG21" s="302"/>
-      <c r="AH21" s="303"/>
-    </row>
-    <row r="22" spans="2:34" ht="23.25" customHeight="1">
+      <c r="L21" s="247"/>
+      <c r="M21" s="247"/>
+      <c r="N21" s="247"/>
+      <c r="O21" s="247"/>
+      <c r="P21" s="247"/>
+      <c r="Q21" s="247"/>
+      <c r="R21" s="247"/>
+      <c r="S21" s="247"/>
+      <c r="T21" s="247"/>
+      <c r="U21" s="247"/>
+      <c r="V21" s="247"/>
+      <c r="W21" s="247"/>
+      <c r="X21" s="247"/>
+      <c r="Y21" s="247"/>
+      <c r="Z21" s="247"/>
+      <c r="AA21" s="247"/>
+      <c r="AB21" s="247"/>
+      <c r="AC21" s="247"/>
+      <c r="AD21" s="247"/>
+      <c r="AE21" s="247"/>
+      <c r="AF21" s="247"/>
+      <c r="AG21" s="247"/>
+      <c r="AH21" s="248"/>
+    </row>
+    <row r="22" spans="2:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="91">
         <v>3</v>
       </c>
@@ -13282,39 +13282,39 @@
       </c>
       <c r="F22" s="161"/>
       <c r="G22" s="162"/>
-      <c r="H22" s="301" t="s">
+      <c r="H22" s="246" t="s">
         <v>217</v>
       </c>
       <c r="I22" s="161"/>
       <c r="J22" s="162"/>
-      <c r="K22" s="301" t="s">
+      <c r="K22" s="246" t="s">
         <v>212</v>
       </c>
-      <c r="L22" s="302"/>
-      <c r="M22" s="302"/>
-      <c r="N22" s="302"/>
-      <c r="O22" s="302"/>
-      <c r="P22" s="302"/>
-      <c r="Q22" s="302"/>
-      <c r="R22" s="302"/>
-      <c r="S22" s="302"/>
-      <c r="T22" s="302"/>
-      <c r="U22" s="302"/>
-      <c r="V22" s="302"/>
-      <c r="W22" s="302"/>
-      <c r="X22" s="302"/>
-      <c r="Y22" s="302"/>
-      <c r="Z22" s="302"/>
-      <c r="AA22" s="302"/>
-      <c r="AB22" s="302"/>
-      <c r="AC22" s="302"/>
-      <c r="AD22" s="302"/>
-      <c r="AE22" s="302"/>
-      <c r="AF22" s="302"/>
-      <c r="AG22" s="302"/>
-      <c r="AH22" s="303"/>
-    </row>
-    <row r="23" spans="2:34" ht="11.25" customHeight="1">
+      <c r="L22" s="247"/>
+      <c r="M22" s="247"/>
+      <c r="N22" s="247"/>
+      <c r="O22" s="247"/>
+      <c r="P22" s="247"/>
+      <c r="Q22" s="247"/>
+      <c r="R22" s="247"/>
+      <c r="S22" s="247"/>
+      <c r="T22" s="247"/>
+      <c r="U22" s="247"/>
+      <c r="V22" s="247"/>
+      <c r="W22" s="247"/>
+      <c r="X22" s="247"/>
+      <c r="Y22" s="247"/>
+      <c r="Z22" s="247"/>
+      <c r="AA22" s="247"/>
+      <c r="AB22" s="247"/>
+      <c r="AC22" s="247"/>
+      <c r="AD22" s="247"/>
+      <c r="AE22" s="247"/>
+      <c r="AF22" s="247"/>
+      <c r="AG22" s="247"/>
+      <c r="AH22" s="248"/>
+    </row>
+    <row r="23" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" s="91">
         <v>4</v>
       </c>
@@ -13323,39 +13323,39 @@
       </c>
       <c r="F23" s="161"/>
       <c r="G23" s="162"/>
-      <c r="H23" s="301" t="s">
+      <c r="H23" s="246" t="s">
         <v>219</v>
       </c>
       <c r="I23" s="161"/>
       <c r="J23" s="162"/>
-      <c r="K23" s="301" t="s">
+      <c r="K23" s="246" t="s">
         <v>213</v>
       </c>
-      <c r="L23" s="302"/>
-      <c r="M23" s="302"/>
-      <c r="N23" s="302"/>
-      <c r="O23" s="302"/>
-      <c r="P23" s="302"/>
-      <c r="Q23" s="302"/>
-      <c r="R23" s="302"/>
-      <c r="S23" s="302"/>
-      <c r="T23" s="302"/>
-      <c r="U23" s="302"/>
-      <c r="V23" s="302"/>
-      <c r="W23" s="302"/>
-      <c r="X23" s="302"/>
-      <c r="Y23" s="302"/>
-      <c r="Z23" s="302"/>
-      <c r="AA23" s="302"/>
-      <c r="AB23" s="302"/>
-      <c r="AC23" s="302"/>
-      <c r="AD23" s="302"/>
-      <c r="AE23" s="302"/>
-      <c r="AF23" s="302"/>
-      <c r="AG23" s="302"/>
-      <c r="AH23" s="303"/>
-    </row>
-    <row r="24" spans="2:34">
+      <c r="L23" s="247"/>
+      <c r="M23" s="247"/>
+      <c r="N23" s="247"/>
+      <c r="O23" s="247"/>
+      <c r="P23" s="247"/>
+      <c r="Q23" s="247"/>
+      <c r="R23" s="247"/>
+      <c r="S23" s="247"/>
+      <c r="T23" s="247"/>
+      <c r="U23" s="247"/>
+      <c r="V23" s="247"/>
+      <c r="W23" s="247"/>
+      <c r="X23" s="247"/>
+      <c r="Y23" s="247"/>
+      <c r="Z23" s="247"/>
+      <c r="AA23" s="247"/>
+      <c r="AB23" s="247"/>
+      <c r="AC23" s="247"/>
+      <c r="AD23" s="247"/>
+      <c r="AE23" s="247"/>
+      <c r="AF23" s="247"/>
+      <c r="AG23" s="247"/>
+      <c r="AH23" s="248"/>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C24" s="38"/>
       <c r="D24" s="47" t="s">
         <v>90</v>
@@ -13391,7 +13391,7 @@
       <c r="AG24" s="122"/>
       <c r="AH24" s="122"/>
     </row>
-    <row r="25" spans="2:34">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C25" s="38"/>
       <c r="D25" s="118"/>
       <c r="E25" s="120"/>
@@ -13425,7 +13425,7 @@
       <c r="AG25" s="122"/>
       <c r="AH25" s="122"/>
     </row>
-    <row r="27" spans="2:34" ht="11.25" customHeight="1">
+    <row r="27" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="38" t="s">
         <v>32</v>
       </c>
@@ -13461,7 +13461,7 @@
       <c r="AG27" s="88"/>
       <c r="AH27" s="88"/>
     </row>
-    <row r="28" spans="2:34" s="20" customFormat="1">
+    <row r="28" spans="2:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C28" s="38"/>
       <c r="D28" s="88" t="s">
         <v>34</v>
@@ -13497,7 +13497,7 @@
       <c r="AG28" s="88"/>
       <c r="AH28" s="88"/>
     </row>
-    <row r="29" spans="2:34" s="20" customFormat="1">
+    <row r="29" spans="2:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C29" s="38"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
@@ -13531,7 +13531,7 @@
       <c r="AG29" s="88"/>
       <c r="AH29" s="88"/>
     </row>
-    <row r="30" spans="2:34" s="20" customFormat="1">
+    <row r="30" spans="2:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C30" s="38"/>
       <c r="D30" s="39"/>
       <c r="E30" s="39" t="s">
@@ -13567,7 +13567,7 @@
       <c r="AG30" s="88"/>
       <c r="AH30" s="40"/>
     </row>
-    <row r="31" spans="2:34" s="20" customFormat="1">
+    <row r="31" spans="2:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C31" s="38"/>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
@@ -13601,50 +13601,50 @@
       <c r="AG31" s="88"/>
       <c r="AH31" s="40"/>
     </row>
-    <row r="32" spans="2:34" s="20" customFormat="1">
+    <row r="32" spans="2:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C32" s="38"/>
       <c r="D32" s="88"/>
-      <c r="E32" s="268" t="s">
+      <c r="E32" s="297" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="268"/>
-      <c r="G32" s="244" t="s">
+      <c r="F32" s="297"/>
+      <c r="G32" s="298" t="s">
         <v>129</v>
       </c>
-      <c r="H32" s="244"/>
-      <c r="I32" s="244"/>
-      <c r="J32" s="244"/>
-      <c r="K32" s="244"/>
-      <c r="L32" s="244"/>
-      <c r="M32" s="268" t="s">
+      <c r="H32" s="298"/>
+      <c r="I32" s="298"/>
+      <c r="J32" s="298"/>
+      <c r="K32" s="298"/>
+      <c r="L32" s="298"/>
+      <c r="M32" s="297" t="s">
         <v>27</v>
       </c>
-      <c r="N32" s="268"/>
-      <c r="O32" s="271" t="s">
+      <c r="N32" s="297"/>
+      <c r="O32" s="258" t="s">
         <v>130</v>
       </c>
-      <c r="P32" s="272"/>
-      <c r="Q32" s="272"/>
-      <c r="R32" s="272"/>
-      <c r="S32" s="272"/>
-      <c r="T32" s="272"/>
-      <c r="U32" s="272"/>
-      <c r="V32" s="272"/>
-      <c r="W32" s="272"/>
-      <c r="X32" s="272"/>
-      <c r="Y32" s="272"/>
-      <c r="Z32" s="272"/>
-      <c r="AA32" s="272"/>
-      <c r="AB32" s="272"/>
-      <c r="AC32" s="272"/>
-      <c r="AD32" s="272"/>
-      <c r="AE32" s="272"/>
-      <c r="AF32" s="272"/>
-      <c r="AG32" s="272"/>
-      <c r="AH32" s="273"/>
-    </row>
-    <row r="33" spans="1:35" s="20" customFormat="1"/>
-    <row r="35" spans="1:35">
+      <c r="P32" s="259"/>
+      <c r="Q32" s="259"/>
+      <c r="R32" s="259"/>
+      <c r="S32" s="259"/>
+      <c r="T32" s="259"/>
+      <c r="U32" s="259"/>
+      <c r="V32" s="259"/>
+      <c r="W32" s="259"/>
+      <c r="X32" s="259"/>
+      <c r="Y32" s="259"/>
+      <c r="Z32" s="259"/>
+      <c r="AA32" s="259"/>
+      <c r="AB32" s="259"/>
+      <c r="AC32" s="259"/>
+      <c r="AD32" s="259"/>
+      <c r="AE32" s="259"/>
+      <c r="AF32" s="259"/>
+      <c r="AG32" s="259"/>
+      <c r="AH32" s="260"/>
+    </row>
+    <row r="33" spans="1:35" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="80" t="s">
@@ -13683,7 +13683,7 @@
       <c r="AH35" s="18"/>
       <c r="AI35" s="18"/>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -13722,7 +13722,7 @@
       <c r="AH36" s="18"/>
       <c r="AI36" s="18"/>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -13761,7 +13761,7 @@
       <c r="AH37" s="18"/>
       <c r="AI37" s="18"/>
     </row>
-    <row r="38" spans="1:35" ht="22.5" customHeight="1">
+    <row r="38" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -13769,48 +13769,48 @@
       <c r="E38" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="F38" s="295" t="s">
+      <c r="F38" s="275" t="s">
         <v>53</v>
       </c>
-      <c r="G38" s="295"/>
-      <c r="H38" s="295"/>
-      <c r="I38" s="295"/>
-      <c r="J38" s="295"/>
-      <c r="K38" s="295"/>
-      <c r="L38" s="295" t="s">
+      <c r="G38" s="275"/>
+      <c r="H38" s="275"/>
+      <c r="I38" s="275"/>
+      <c r="J38" s="275"/>
+      <c r="K38" s="275"/>
+      <c r="L38" s="275" t="s">
         <v>54</v>
       </c>
-      <c r="M38" s="295"/>
-      <c r="N38" s="295"/>
-      <c r="O38" s="295"/>
-      <c r="P38" s="295"/>
-      <c r="Q38" s="295"/>
-      <c r="R38" s="295"/>
-      <c r="S38" s="295"/>
-      <c r="T38" s="295"/>
-      <c r="U38" s="295"/>
-      <c r="V38" s="263" t="s">
+      <c r="M38" s="275"/>
+      <c r="N38" s="275"/>
+      <c r="O38" s="275"/>
+      <c r="P38" s="275"/>
+      <c r="Q38" s="275"/>
+      <c r="R38" s="275"/>
+      <c r="S38" s="275"/>
+      <c r="T38" s="275"/>
+      <c r="U38" s="275"/>
+      <c r="V38" s="269" t="s">
         <v>95</v>
       </c>
-      <c r="W38" s="263"/>
-      <c r="X38" s="263"/>
-      <c r="Y38" s="263" t="s">
+      <c r="W38" s="269"/>
+      <c r="X38" s="269"/>
+      <c r="Y38" s="269" t="s">
         <v>55</v>
       </c>
-      <c r="Z38" s="263"/>
-      <c r="AA38" s="263"/>
-      <c r="AB38" s="263"/>
-      <c r="AC38" s="296" t="s">
+      <c r="Z38" s="269"/>
+      <c r="AA38" s="269"/>
+      <c r="AB38" s="269"/>
+      <c r="AC38" s="276" t="s">
         <v>96</v>
       </c>
-      <c r="AD38" s="296"/>
-      <c r="AE38" s="296"/>
-      <c r="AF38" s="296"/>
+      <c r="AD38" s="276"/>
+      <c r="AE38" s="276"/>
+      <c r="AF38" s="276"/>
       <c r="AG38" s="18"/>
       <c r="AH38" s="18"/>
       <c r="AI38" s="18"/>
     </row>
-    <row r="39" spans="1:35" ht="33.75" customHeight="1">
+    <row r="39" spans="1:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="43"/>
@@ -13818,48 +13818,48 @@
       <c r="E39" s="124">
         <v>1</v>
       </c>
-      <c r="F39" s="252" t="s">
+      <c r="F39" s="257" t="s">
         <v>97</v>
       </c>
-      <c r="G39" s="252"/>
-      <c r="H39" s="252"/>
-      <c r="I39" s="252"/>
-      <c r="J39" s="252"/>
-      <c r="K39" s="252"/>
-      <c r="L39" s="297" t="s">
+      <c r="G39" s="257"/>
+      <c r="H39" s="257"/>
+      <c r="I39" s="257"/>
+      <c r="J39" s="257"/>
+      <c r="K39" s="257"/>
+      <c r="L39" s="277" t="s">
         <v>98</v>
       </c>
-      <c r="M39" s="297"/>
-      <c r="N39" s="297"/>
-      <c r="O39" s="297"/>
-      <c r="P39" s="297"/>
-      <c r="Q39" s="297"/>
-      <c r="R39" s="297"/>
-      <c r="S39" s="297"/>
-      <c r="T39" s="297"/>
-      <c r="U39" s="297"/>
-      <c r="V39" s="247" t="s">
+      <c r="M39" s="277"/>
+      <c r="N39" s="277"/>
+      <c r="O39" s="277"/>
+      <c r="P39" s="277"/>
+      <c r="Q39" s="277"/>
+      <c r="R39" s="277"/>
+      <c r="S39" s="277"/>
+      <c r="T39" s="277"/>
+      <c r="U39" s="277"/>
+      <c r="V39" s="278" t="s">
         <v>99</v>
       </c>
-      <c r="W39" s="247"/>
-      <c r="X39" s="247"/>
-      <c r="Y39" s="274" t="s">
+      <c r="W39" s="278"/>
+      <c r="X39" s="278"/>
+      <c r="Y39" s="302" t="s">
         <v>99</v>
       </c>
-      <c r="Z39" s="274"/>
-      <c r="AA39" s="274"/>
-      <c r="AB39" s="274"/>
-      <c r="AC39" s="275" t="s">
+      <c r="Z39" s="302"/>
+      <c r="AA39" s="302"/>
+      <c r="AB39" s="302"/>
+      <c r="AC39" s="240" t="s">
         <v>203</v>
       </c>
-      <c r="AD39" s="254"/>
-      <c r="AE39" s="254"/>
-      <c r="AF39" s="255"/>
+      <c r="AD39" s="241"/>
+      <c r="AE39" s="241"/>
+      <c r="AF39" s="242"/>
       <c r="AG39" s="18"/>
       <c r="AH39" s="18"/>
       <c r="AI39" s="18"/>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="95"/>
@@ -13896,7 +13896,7 @@
       <c r="AH40" s="18"/>
       <c r="AI40" s="18"/>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="95"/>
@@ -13935,50 +13935,50 @@
       <c r="AH41" s="18"/>
       <c r="AI41" s="18"/>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="43"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="294" t="s">
+      <c r="E42" s="267" t="s">
         <v>204</v>
       </c>
-      <c r="F42" s="264"/>
-      <c r="G42" s="264"/>
-      <c r="H42" s="263" t="s">
+      <c r="F42" s="268"/>
+      <c r="G42" s="268"/>
+      <c r="H42" s="269" t="s">
         <v>64</v>
       </c>
-      <c r="I42" s="263"/>
-      <c r="J42" s="263"/>
-      <c r="K42" s="263" t="s">
+      <c r="I42" s="269"/>
+      <c r="J42" s="269"/>
+      <c r="K42" s="269" t="s">
         <v>95</v>
       </c>
-      <c r="L42" s="263"/>
-      <c r="M42" s="263"/>
-      <c r="N42" s="263"/>
-      <c r="O42" s="265" t="s">
+      <c r="L42" s="269"/>
+      <c r="M42" s="269"/>
+      <c r="N42" s="269"/>
+      <c r="O42" s="270" t="s">
         <v>55</v>
       </c>
-      <c r="P42" s="266"/>
-      <c r="Q42" s="266"/>
-      <c r="R42" s="266"/>
-      <c r="S42" s="266"/>
-      <c r="T42" s="266"/>
-      <c r="U42" s="266"/>
-      <c r="V42" s="266"/>
-      <c r="W42" s="266"/>
-      <c r="X42" s="266"/>
-      <c r="Y42" s="266"/>
-      <c r="Z42" s="266"/>
-      <c r="AA42" s="266"/>
-      <c r="AB42" s="267"/>
+      <c r="P42" s="271"/>
+      <c r="Q42" s="271"/>
+      <c r="R42" s="271"/>
+      <c r="S42" s="271"/>
+      <c r="T42" s="271"/>
+      <c r="U42" s="271"/>
+      <c r="V42" s="271"/>
+      <c r="W42" s="271"/>
+      <c r="X42" s="271"/>
+      <c r="Y42" s="271"/>
+      <c r="Z42" s="271"/>
+      <c r="AA42" s="271"/>
+      <c r="AB42" s="272"/>
       <c r="AE42" s="18"/>
       <c r="AF42" s="18"/>
       <c r="AG42" s="18"/>
       <c r="AH42" s="18"/>
       <c r="AI42" s="18"/>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="95"/>
@@ -13988,40 +13988,40 @@
       </c>
       <c r="F43" s="161"/>
       <c r="G43" s="162"/>
-      <c r="H43" s="251" t="s">
+      <c r="H43" s="273" t="s">
         <v>214</v>
       </c>
-      <c r="I43" s="252"/>
-      <c r="J43" s="252"/>
-      <c r="K43" s="252" t="s">
+      <c r="I43" s="257"/>
+      <c r="J43" s="257"/>
+      <c r="K43" s="257" t="s">
         <v>99</v>
       </c>
-      <c r="L43" s="252"/>
-      <c r="M43" s="252"/>
-      <c r="N43" s="252"/>
-      <c r="O43" s="253" t="s">
+      <c r="L43" s="257"/>
+      <c r="M43" s="257"/>
+      <c r="N43" s="257"/>
+      <c r="O43" s="274" t="s">
         <v>99</v>
       </c>
-      <c r="P43" s="254"/>
-      <c r="Q43" s="254"/>
-      <c r="R43" s="254"/>
-      <c r="S43" s="254"/>
-      <c r="T43" s="254"/>
-      <c r="U43" s="254"/>
-      <c r="V43" s="254"/>
-      <c r="W43" s="254"/>
-      <c r="X43" s="254"/>
-      <c r="Y43" s="254"/>
-      <c r="Z43" s="254"/>
-      <c r="AA43" s="254"/>
-      <c r="AB43" s="255"/>
+      <c r="P43" s="241"/>
+      <c r="Q43" s="241"/>
+      <c r="R43" s="241"/>
+      <c r="S43" s="241"/>
+      <c r="T43" s="241"/>
+      <c r="U43" s="241"/>
+      <c r="V43" s="241"/>
+      <c r="W43" s="241"/>
+      <c r="X43" s="241"/>
+      <c r="Y43" s="241"/>
+      <c r="Z43" s="241"/>
+      <c r="AA43" s="241"/>
+      <c r="AB43" s="242"/>
       <c r="AE43" s="18"/>
       <c r="AF43" s="18"/>
       <c r="AG43" s="18"/>
       <c r="AH43" s="18"/>
       <c r="AI43" s="18"/>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -14060,7 +14060,7 @@
       <c r="AH44" s="18"/>
       <c r="AI44" s="18"/>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -14097,7 +14097,7 @@
       <c r="AH45" s="18"/>
       <c r="AI45" s="18"/>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -14136,7 +14136,7 @@
       <c r="AH46" s="18"/>
       <c r="AI46" s="18"/>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -14175,7 +14175,7 @@
       <c r="AH47" s="18"/>
       <c r="AI47" s="18"/>
     </row>
-    <row r="48" spans="1:35" ht="22.5" customHeight="1">
+    <row r="48" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -14183,48 +14183,48 @@
       <c r="E48" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="F48" s="295" t="s">
+      <c r="F48" s="275" t="s">
         <v>53</v>
       </c>
-      <c r="G48" s="295"/>
-      <c r="H48" s="295"/>
-      <c r="I48" s="295"/>
-      <c r="J48" s="295"/>
-      <c r="K48" s="295"/>
-      <c r="L48" s="295" t="s">
+      <c r="G48" s="275"/>
+      <c r="H48" s="275"/>
+      <c r="I48" s="275"/>
+      <c r="J48" s="275"/>
+      <c r="K48" s="275"/>
+      <c r="L48" s="275" t="s">
         <v>54</v>
       </c>
-      <c r="M48" s="295"/>
-      <c r="N48" s="295"/>
-      <c r="O48" s="295"/>
-      <c r="P48" s="295"/>
-      <c r="Q48" s="295"/>
-      <c r="R48" s="295"/>
-      <c r="S48" s="295"/>
-      <c r="T48" s="295"/>
-      <c r="U48" s="295"/>
-      <c r="V48" s="263" t="s">
+      <c r="M48" s="275"/>
+      <c r="N48" s="275"/>
+      <c r="O48" s="275"/>
+      <c r="P48" s="275"/>
+      <c r="Q48" s="275"/>
+      <c r="R48" s="275"/>
+      <c r="S48" s="275"/>
+      <c r="T48" s="275"/>
+      <c r="U48" s="275"/>
+      <c r="V48" s="269" t="s">
         <v>95</v>
       </c>
-      <c r="W48" s="263"/>
-      <c r="X48" s="263"/>
-      <c r="Y48" s="263" t="s">
+      <c r="W48" s="269"/>
+      <c r="X48" s="269"/>
+      <c r="Y48" s="269" t="s">
         <v>55</v>
       </c>
-      <c r="Z48" s="263"/>
-      <c r="AA48" s="263"/>
-      <c r="AB48" s="263"/>
-      <c r="AC48" s="296" t="s">
+      <c r="Z48" s="269"/>
+      <c r="AA48" s="269"/>
+      <c r="AB48" s="269"/>
+      <c r="AC48" s="276" t="s">
         <v>96</v>
       </c>
-      <c r="AD48" s="296"/>
-      <c r="AE48" s="296"/>
-      <c r="AF48" s="296"/>
+      <c r="AD48" s="276"/>
+      <c r="AE48" s="276"/>
+      <c r="AF48" s="276"/>
       <c r="AG48" s="18"/>
       <c r="AH48" s="18"/>
       <c r="AI48" s="18"/>
     </row>
-    <row r="49" spans="1:35" ht="33.75" customHeight="1">
+    <row r="49" spans="1:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -14232,48 +14232,48 @@
       <c r="E49" s="124">
         <v>1</v>
       </c>
-      <c r="F49" s="252" t="s">
+      <c r="F49" s="257" t="s">
         <v>104</v>
       </c>
-      <c r="G49" s="252"/>
-      <c r="H49" s="252"/>
-      <c r="I49" s="252"/>
-      <c r="J49" s="252"/>
-      <c r="K49" s="252"/>
-      <c r="L49" s="297" t="s">
+      <c r="G49" s="257"/>
+      <c r="H49" s="257"/>
+      <c r="I49" s="257"/>
+      <c r="J49" s="257"/>
+      <c r="K49" s="257"/>
+      <c r="L49" s="277" t="s">
         <v>105</v>
       </c>
-      <c r="M49" s="297"/>
-      <c r="N49" s="297"/>
-      <c r="O49" s="297"/>
-      <c r="P49" s="297"/>
-      <c r="Q49" s="297"/>
-      <c r="R49" s="297"/>
-      <c r="S49" s="297"/>
-      <c r="T49" s="297"/>
-      <c r="U49" s="297"/>
-      <c r="V49" s="247" t="s">
+      <c r="M49" s="277"/>
+      <c r="N49" s="277"/>
+      <c r="O49" s="277"/>
+      <c r="P49" s="277"/>
+      <c r="Q49" s="277"/>
+      <c r="R49" s="277"/>
+      <c r="S49" s="277"/>
+      <c r="T49" s="277"/>
+      <c r="U49" s="277"/>
+      <c r="V49" s="278" t="s">
         <v>106</v>
       </c>
-      <c r="W49" s="247"/>
-      <c r="X49" s="247"/>
-      <c r="Y49" s="274" t="s">
+      <c r="W49" s="278"/>
+      <c r="X49" s="278"/>
+      <c r="Y49" s="302" t="s">
         <v>106</v>
       </c>
-      <c r="Z49" s="274"/>
-      <c r="AA49" s="274"/>
-      <c r="AB49" s="274"/>
-      <c r="AC49" s="275" t="s">
+      <c r="Z49" s="302"/>
+      <c r="AA49" s="302"/>
+      <c r="AB49" s="302"/>
+      <c r="AC49" s="240" t="s">
         <v>203</v>
       </c>
-      <c r="AD49" s="254"/>
-      <c r="AE49" s="254"/>
-      <c r="AF49" s="255"/>
+      <c r="AD49" s="241"/>
+      <c r="AE49" s="241"/>
+      <c r="AF49" s="242"/>
       <c r="AG49" s="18"/>
       <c r="AH49" s="18"/>
       <c r="AI49" s="18"/>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -14310,7 +14310,7 @@
       <c r="AH50" s="18"/>
       <c r="AI50" s="18"/>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -14349,43 +14349,43 @@
       <c r="AH51" s="18"/>
       <c r="AI51" s="18"/>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
-      <c r="E52" s="264" t="s">
+      <c r="E52" s="268" t="s">
         <v>198</v>
       </c>
-      <c r="F52" s="264"/>
-      <c r="G52" s="264"/>
-      <c r="H52" s="263" t="s">
+      <c r="F52" s="268"/>
+      <c r="G52" s="268"/>
+      <c r="H52" s="269" t="s">
         <v>64</v>
       </c>
-      <c r="I52" s="263"/>
-      <c r="J52" s="263"/>
-      <c r="K52" s="263" t="s">
+      <c r="I52" s="269"/>
+      <c r="J52" s="269"/>
+      <c r="K52" s="269" t="s">
         <v>95</v>
       </c>
-      <c r="L52" s="263"/>
-      <c r="M52" s="263"/>
-      <c r="N52" s="263"/>
-      <c r="O52" s="265" t="s">
+      <c r="L52" s="269"/>
+      <c r="M52" s="269"/>
+      <c r="N52" s="269"/>
+      <c r="O52" s="270" t="s">
         <v>55</v>
       </c>
-      <c r="P52" s="266"/>
-      <c r="Q52" s="266"/>
-      <c r="R52" s="266"/>
-      <c r="S52" s="266"/>
-      <c r="T52" s="266"/>
-      <c r="U52" s="266"/>
-      <c r="V52" s="266"/>
-      <c r="W52" s="266"/>
-      <c r="X52" s="266"/>
-      <c r="Y52" s="266"/>
-      <c r="Z52" s="266"/>
-      <c r="AA52" s="266"/>
-      <c r="AB52" s="267"/>
+      <c r="P52" s="271"/>
+      <c r="Q52" s="271"/>
+      <c r="R52" s="271"/>
+      <c r="S52" s="271"/>
+      <c r="T52" s="271"/>
+      <c r="U52" s="271"/>
+      <c r="V52" s="271"/>
+      <c r="W52" s="271"/>
+      <c r="X52" s="271"/>
+      <c r="Y52" s="271"/>
+      <c r="Z52" s="271"/>
+      <c r="AA52" s="271"/>
+      <c r="AB52" s="272"/>
       <c r="AC52" s="18"/>
       <c r="AD52" s="18"/>
       <c r="AE52" s="18"/>
@@ -14394,7 +14394,7 @@
       <c r="AH52" s="18"/>
       <c r="AI52" s="18"/>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -14404,33 +14404,33 @@
       </c>
       <c r="F53" s="161"/>
       <c r="G53" s="162"/>
-      <c r="H53" s="251" t="s">
+      <c r="H53" s="273" t="s">
         <v>216</v>
       </c>
-      <c r="I53" s="252"/>
-      <c r="J53" s="252"/>
-      <c r="K53" s="252" t="s">
+      <c r="I53" s="257"/>
+      <c r="J53" s="257"/>
+      <c r="K53" s="257" t="s">
         <v>106</v>
       </c>
-      <c r="L53" s="252"/>
-      <c r="M53" s="252"/>
-      <c r="N53" s="252"/>
-      <c r="O53" s="253" t="s">
+      <c r="L53" s="257"/>
+      <c r="M53" s="257"/>
+      <c r="N53" s="257"/>
+      <c r="O53" s="274" t="s">
         <v>106</v>
       </c>
-      <c r="P53" s="254"/>
-      <c r="Q53" s="254"/>
-      <c r="R53" s="254"/>
-      <c r="S53" s="254"/>
-      <c r="T53" s="254"/>
-      <c r="U53" s="254"/>
-      <c r="V53" s="254"/>
-      <c r="W53" s="254"/>
-      <c r="X53" s="254"/>
-      <c r="Y53" s="254"/>
-      <c r="Z53" s="254"/>
-      <c r="AA53" s="254"/>
-      <c r="AB53" s="255"/>
+      <c r="P53" s="241"/>
+      <c r="Q53" s="241"/>
+      <c r="R53" s="241"/>
+      <c r="S53" s="241"/>
+      <c r="T53" s="241"/>
+      <c r="U53" s="241"/>
+      <c r="V53" s="241"/>
+      <c r="W53" s="241"/>
+      <c r="X53" s="241"/>
+      <c r="Y53" s="241"/>
+      <c r="Z53" s="241"/>
+      <c r="AA53" s="241"/>
+      <c r="AB53" s="242"/>
       <c r="AC53" s="18"/>
       <c r="AD53" s="18"/>
       <c r="AE53" s="18"/>
@@ -14439,7 +14439,7 @@
       <c r="AH53" s="18"/>
       <c r="AI53" s="18"/>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -14476,7 +14476,7 @@
       <c r="AH54" s="18"/>
       <c r="AI54" s="18"/>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -14515,7 +14515,7 @@
       <c r="AH55" s="18"/>
       <c r="AI55" s="18"/>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -14554,7 +14554,7 @@
       <c r="AH56" s="18"/>
       <c r="AI56" s="18"/>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -14591,35 +14591,35 @@
       <c r="AH57" s="18"/>
       <c r="AI57" s="18"/>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
-      <c r="E58" s="263" t="s">
+      <c r="E58" s="269" t="s">
         <v>109</v>
       </c>
-      <c r="F58" s="263"/>
-      <c r="G58" s="263"/>
-      <c r="H58" s="263"/>
-      <c r="I58" s="263"/>
-      <c r="J58" s="263"/>
-      <c r="K58" s="263"/>
-      <c r="L58" s="263"/>
-      <c r="M58" s="263"/>
-      <c r="N58" s="263"/>
-      <c r="O58" s="263" t="s">
+      <c r="F58" s="269"/>
+      <c r="G58" s="269"/>
+      <c r="H58" s="269"/>
+      <c r="I58" s="269"/>
+      <c r="J58" s="269"/>
+      <c r="K58" s="269"/>
+      <c r="L58" s="269"/>
+      <c r="M58" s="269"/>
+      <c r="N58" s="269"/>
+      <c r="O58" s="269" t="s">
         <v>110</v>
       </c>
-      <c r="P58" s="263"/>
-      <c r="Q58" s="263"/>
-      <c r="R58" s="263"/>
-      <c r="S58" s="263"/>
-      <c r="T58" s="263"/>
-      <c r="U58" s="263"/>
-      <c r="V58" s="263"/>
-      <c r="W58" s="263"/>
-      <c r="X58" s="263"/>
+      <c r="P58" s="269"/>
+      <c r="Q58" s="269"/>
+      <c r="R58" s="269"/>
+      <c r="S58" s="269"/>
+      <c r="T58" s="269"/>
+      <c r="U58" s="269"/>
+      <c r="V58" s="269"/>
+      <c r="W58" s="269"/>
+      <c r="X58" s="269"/>
       <c r="Y58" s="18"/>
       <c r="Z58" s="18"/>
       <c r="AA58" s="18"/>
@@ -14632,7 +14632,7 @@
       <c r="AH58" s="18"/>
       <c r="AI58" s="18"/>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -14649,18 +14649,18 @@
       <c r="L59" s="125"/>
       <c r="M59" s="125"/>
       <c r="N59" s="126"/>
-      <c r="O59" s="240" t="s">
+      <c r="O59" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="P59" s="241"/>
-      <c r="Q59" s="241"/>
-      <c r="R59" s="241"/>
-      <c r="S59" s="241"/>
-      <c r="T59" s="241"/>
-      <c r="U59" s="241"/>
-      <c r="V59" s="241"/>
-      <c r="W59" s="241"/>
-      <c r="X59" s="242"/>
+      <c r="P59" s="304"/>
+      <c r="Q59" s="304"/>
+      <c r="R59" s="304"/>
+      <c r="S59" s="304"/>
+      <c r="T59" s="304"/>
+      <c r="U59" s="304"/>
+      <c r="V59" s="304"/>
+      <c r="W59" s="304"/>
+      <c r="X59" s="305"/>
       <c r="Y59" s="18"/>
       <c r="Z59" s="18"/>
       <c r="AA59" s="18"/>
@@ -14673,7 +14673,7 @@
       <c r="AH59" s="18"/>
       <c r="AI59" s="18"/>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -14690,18 +14690,18 @@
       <c r="L60" s="127"/>
       <c r="M60" s="127"/>
       <c r="N60" s="128"/>
-      <c r="O60" s="240" t="s">
+      <c r="O60" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="P60" s="241"/>
-      <c r="Q60" s="241"/>
-      <c r="R60" s="241"/>
-      <c r="S60" s="241"/>
-      <c r="T60" s="241"/>
-      <c r="U60" s="241"/>
-      <c r="V60" s="241"/>
-      <c r="W60" s="241"/>
-      <c r="X60" s="242"/>
+      <c r="P60" s="304"/>
+      <c r="Q60" s="304"/>
+      <c r="R60" s="304"/>
+      <c r="S60" s="304"/>
+      <c r="T60" s="304"/>
+      <c r="U60" s="304"/>
+      <c r="V60" s="304"/>
+      <c r="W60" s="304"/>
+      <c r="X60" s="305"/>
       <c r="Y60" s="18"/>
       <c r="Z60" s="18"/>
       <c r="AA60" s="18"/>
@@ -14714,7 +14714,7 @@
       <c r="AH60" s="18"/>
       <c r="AI60" s="18"/>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
@@ -14729,18 +14729,18 @@
       <c r="L61" s="127"/>
       <c r="M61" s="127"/>
       <c r="N61" s="128"/>
-      <c r="O61" s="240" t="s">
+      <c r="O61" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="P61" s="241"/>
-      <c r="Q61" s="241"/>
-      <c r="R61" s="241"/>
-      <c r="S61" s="241"/>
-      <c r="T61" s="241"/>
-      <c r="U61" s="241"/>
-      <c r="V61" s="241"/>
-      <c r="W61" s="241"/>
-      <c r="X61" s="242"/>
+      <c r="P61" s="304"/>
+      <c r="Q61" s="304"/>
+      <c r="R61" s="304"/>
+      <c r="S61" s="304"/>
+      <c r="T61" s="304"/>
+      <c r="U61" s="304"/>
+      <c r="V61" s="304"/>
+      <c r="W61" s="304"/>
+      <c r="X61" s="305"/>
       <c r="Y61" s="18"/>
       <c r="Z61" s="18"/>
       <c r="AA61" s="18"/>
@@ -14753,7 +14753,7 @@
       <c r="AH61" s="18"/>
       <c r="AI61" s="18"/>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -14768,18 +14768,18 @@
       <c r="L62" s="127"/>
       <c r="M62" s="127"/>
       <c r="N62" s="128"/>
-      <c r="O62" s="240" t="s">
+      <c r="O62" s="303" t="s">
         <v>116</v>
       </c>
-      <c r="P62" s="241"/>
-      <c r="Q62" s="241"/>
-      <c r="R62" s="241"/>
-      <c r="S62" s="241"/>
-      <c r="T62" s="241"/>
-      <c r="U62" s="241"/>
-      <c r="V62" s="241"/>
-      <c r="W62" s="241"/>
-      <c r="X62" s="242"/>
+      <c r="P62" s="304"/>
+      <c r="Q62" s="304"/>
+      <c r="R62" s="304"/>
+      <c r="S62" s="304"/>
+      <c r="T62" s="304"/>
+      <c r="U62" s="304"/>
+      <c r="V62" s="304"/>
+      <c r="W62" s="304"/>
+      <c r="X62" s="305"/>
       <c r="Y62" s="18"/>
       <c r="Z62" s="18"/>
       <c r="AA62" s="18"/>
@@ -14792,7 +14792,7 @@
       <c r="AH62" s="18"/>
       <c r="AI62" s="18"/>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -14807,18 +14807,18 @@
       <c r="L63" s="127"/>
       <c r="M63" s="127"/>
       <c r="N63" s="128"/>
-      <c r="O63" s="240" t="s">
+      <c r="O63" s="303" t="s">
         <v>117</v>
       </c>
-      <c r="P63" s="241"/>
-      <c r="Q63" s="241"/>
-      <c r="R63" s="241"/>
-      <c r="S63" s="241"/>
-      <c r="T63" s="241"/>
-      <c r="U63" s="241"/>
-      <c r="V63" s="241"/>
-      <c r="W63" s="241"/>
-      <c r="X63" s="242"/>
+      <c r="P63" s="304"/>
+      <c r="Q63" s="304"/>
+      <c r="R63" s="304"/>
+      <c r="S63" s="304"/>
+      <c r="T63" s="304"/>
+      <c r="U63" s="304"/>
+      <c r="V63" s="304"/>
+      <c r="W63" s="304"/>
+      <c r="X63" s="305"/>
       <c r="Y63" s="18"/>
       <c r="Z63" s="18"/>
       <c r="AA63" s="18"/>
@@ -14831,7 +14831,7 @@
       <c r="AH63" s="18"/>
       <c r="AI63" s="18"/>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -14846,18 +14846,18 @@
       <c r="L64" s="127"/>
       <c r="M64" s="127"/>
       <c r="N64" s="128"/>
-      <c r="O64" s="240" t="s">
+      <c r="O64" s="303" t="s">
         <v>118</v>
       </c>
-      <c r="P64" s="241"/>
-      <c r="Q64" s="241"/>
-      <c r="R64" s="241"/>
-      <c r="S64" s="241"/>
-      <c r="T64" s="241"/>
-      <c r="U64" s="241"/>
-      <c r="V64" s="241"/>
-      <c r="W64" s="241"/>
-      <c r="X64" s="242"/>
+      <c r="P64" s="304"/>
+      <c r="Q64" s="304"/>
+      <c r="R64" s="304"/>
+      <c r="S64" s="304"/>
+      <c r="T64" s="304"/>
+      <c r="U64" s="304"/>
+      <c r="V64" s="304"/>
+      <c r="W64" s="304"/>
+      <c r="X64" s="305"/>
       <c r="Y64" s="18"/>
       <c r="Z64" s="18"/>
       <c r="AA64" s="18"/>
@@ -14870,7 +14870,7 @@
       <c r="AH64" s="18"/>
       <c r="AI64" s="18"/>
     </row>
-    <row r="65" spans="1:35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -14885,18 +14885,18 @@
       <c r="L65" s="127"/>
       <c r="M65" s="127"/>
       <c r="N65" s="128"/>
-      <c r="O65" s="240" t="s">
+      <c r="O65" s="303" t="s">
         <v>119</v>
       </c>
-      <c r="P65" s="241"/>
-      <c r="Q65" s="241"/>
-      <c r="R65" s="241"/>
-      <c r="S65" s="241"/>
-      <c r="T65" s="241"/>
-      <c r="U65" s="241"/>
-      <c r="V65" s="241"/>
-      <c r="W65" s="241"/>
-      <c r="X65" s="242"/>
+      <c r="P65" s="304"/>
+      <c r="Q65" s="304"/>
+      <c r="R65" s="304"/>
+      <c r="S65" s="304"/>
+      <c r="T65" s="304"/>
+      <c r="U65" s="304"/>
+      <c r="V65" s="304"/>
+      <c r="W65" s="304"/>
+      <c r="X65" s="305"/>
       <c r="Y65" s="18"/>
       <c r="Z65" s="18"/>
       <c r="AA65" s="18"/>
@@ -14909,7 +14909,7 @@
       <c r="AH65" s="18"/>
       <c r="AI65" s="18"/>
     </row>
-    <row r="66" spans="1:35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -14924,18 +14924,18 @@
       <c r="L66" s="127"/>
       <c r="M66" s="127"/>
       <c r="N66" s="128"/>
-      <c r="O66" s="240" t="s">
+      <c r="O66" s="303" t="s">
         <v>120</v>
       </c>
-      <c r="P66" s="241"/>
-      <c r="Q66" s="241"/>
-      <c r="R66" s="241"/>
-      <c r="S66" s="241"/>
-      <c r="T66" s="241"/>
-      <c r="U66" s="241"/>
-      <c r="V66" s="241"/>
-      <c r="W66" s="241"/>
-      <c r="X66" s="242"/>
+      <c r="P66" s="304"/>
+      <c r="Q66" s="304"/>
+      <c r="R66" s="304"/>
+      <c r="S66" s="304"/>
+      <c r="T66" s="304"/>
+      <c r="U66" s="304"/>
+      <c r="V66" s="304"/>
+      <c r="W66" s="304"/>
+      <c r="X66" s="305"/>
       <c r="Y66" s="18"/>
       <c r="Z66" s="18"/>
       <c r="AA66" s="18"/>
@@ -14948,7 +14948,7 @@
       <c r="AH66" s="18"/>
       <c r="AI66" s="18"/>
     </row>
-    <row r="67" spans="1:35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -14963,18 +14963,18 @@
       <c r="L67" s="127"/>
       <c r="M67" s="127"/>
       <c r="N67" s="128"/>
-      <c r="O67" s="240" t="s">
+      <c r="O67" s="303" t="s">
         <v>121</v>
       </c>
-      <c r="P67" s="241"/>
-      <c r="Q67" s="241"/>
-      <c r="R67" s="241"/>
-      <c r="S67" s="241"/>
-      <c r="T67" s="241"/>
-      <c r="U67" s="241"/>
-      <c r="V67" s="241"/>
-      <c r="W67" s="241"/>
-      <c r="X67" s="242"/>
+      <c r="P67" s="304"/>
+      <c r="Q67" s="304"/>
+      <c r="R67" s="304"/>
+      <c r="S67" s="304"/>
+      <c r="T67" s="304"/>
+      <c r="U67" s="304"/>
+      <c r="V67" s="304"/>
+      <c r="W67" s="304"/>
+      <c r="X67" s="305"/>
       <c r="Y67" s="18"/>
       <c r="Z67" s="18"/>
       <c r="AA67" s="18"/>
@@ -14987,7 +14987,7 @@
       <c r="AH67" s="18"/>
       <c r="AI67" s="18"/>
     </row>
-    <row r="68" spans="1:35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -15002,18 +15002,18 @@
       <c r="L68" s="127"/>
       <c r="M68" s="127"/>
       <c r="N68" s="128"/>
-      <c r="O68" s="240" t="s">
+      <c r="O68" s="303" t="s">
         <v>122</v>
       </c>
-      <c r="P68" s="241"/>
-      <c r="Q68" s="241"/>
-      <c r="R68" s="241"/>
-      <c r="S68" s="241"/>
-      <c r="T68" s="241"/>
-      <c r="U68" s="241"/>
-      <c r="V68" s="241"/>
-      <c r="W68" s="241"/>
-      <c r="X68" s="242"/>
+      <c r="P68" s="304"/>
+      <c r="Q68" s="304"/>
+      <c r="R68" s="304"/>
+      <c r="S68" s="304"/>
+      <c r="T68" s="304"/>
+      <c r="U68" s="304"/>
+      <c r="V68" s="304"/>
+      <c r="W68" s="304"/>
+      <c r="X68" s="305"/>
       <c r="Y68" s="18"/>
       <c r="Z68" s="18"/>
       <c r="AA68" s="18"/>
@@ -15026,7 +15026,7 @@
       <c r="AH68" s="18"/>
       <c r="AI68" s="18"/>
     </row>
-    <row r="69" spans="1:35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -15041,18 +15041,18 @@
       <c r="L69" s="127"/>
       <c r="M69" s="127"/>
       <c r="N69" s="128"/>
-      <c r="O69" s="240" t="s">
+      <c r="O69" s="303" t="s">
         <v>123</v>
       </c>
-      <c r="P69" s="241"/>
-      <c r="Q69" s="241"/>
-      <c r="R69" s="241"/>
-      <c r="S69" s="241"/>
-      <c r="T69" s="241"/>
-      <c r="U69" s="241"/>
-      <c r="V69" s="241"/>
-      <c r="W69" s="241"/>
-      <c r="X69" s="242"/>
+      <c r="P69" s="304"/>
+      <c r="Q69" s="304"/>
+      <c r="R69" s="304"/>
+      <c r="S69" s="304"/>
+      <c r="T69" s="304"/>
+      <c r="U69" s="304"/>
+      <c r="V69" s="304"/>
+      <c r="W69" s="304"/>
+      <c r="X69" s="305"/>
       <c r="Y69" s="18"/>
       <c r="Z69" s="18"/>
       <c r="AA69" s="18"/>
@@ -15065,7 +15065,7 @@
       <c r="AH69" s="18"/>
       <c r="AI69" s="18"/>
     </row>
-    <row r="70" spans="1:35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
@@ -15080,18 +15080,18 @@
       <c r="L70" s="127"/>
       <c r="M70" s="127"/>
       <c r="N70" s="128"/>
-      <c r="O70" s="240" t="s">
+      <c r="O70" s="303" t="s">
         <v>124</v>
       </c>
-      <c r="P70" s="241"/>
-      <c r="Q70" s="241"/>
-      <c r="R70" s="241"/>
-      <c r="S70" s="241"/>
-      <c r="T70" s="241"/>
-      <c r="U70" s="241"/>
-      <c r="V70" s="241"/>
-      <c r="W70" s="241"/>
-      <c r="X70" s="242"/>
+      <c r="P70" s="304"/>
+      <c r="Q70" s="304"/>
+      <c r="R70" s="304"/>
+      <c r="S70" s="304"/>
+      <c r="T70" s="304"/>
+      <c r="U70" s="304"/>
+      <c r="V70" s="304"/>
+      <c r="W70" s="304"/>
+      <c r="X70" s="305"/>
       <c r="Y70" s="18"/>
       <c r="Z70" s="18"/>
       <c r="AA70" s="18"/>
@@ -15104,7 +15104,7 @@
       <c r="AH70" s="18"/>
       <c r="AI70" s="18"/>
     </row>
-    <row r="71" spans="1:35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -15119,18 +15119,18 @@
       <c r="L71" s="127"/>
       <c r="M71" s="127"/>
       <c r="N71" s="128"/>
-      <c r="O71" s="240" t="s">
+      <c r="O71" s="303" t="s">
         <v>125</v>
       </c>
-      <c r="P71" s="241"/>
-      <c r="Q71" s="241"/>
-      <c r="R71" s="241"/>
-      <c r="S71" s="241"/>
-      <c r="T71" s="241"/>
-      <c r="U71" s="241"/>
-      <c r="V71" s="241"/>
-      <c r="W71" s="241"/>
-      <c r="X71" s="242"/>
+      <c r="P71" s="304"/>
+      <c r="Q71" s="304"/>
+      <c r="R71" s="304"/>
+      <c r="S71" s="304"/>
+      <c r="T71" s="304"/>
+      <c r="U71" s="304"/>
+      <c r="V71" s="304"/>
+      <c r="W71" s="304"/>
+      <c r="X71" s="305"/>
       <c r="Y71" s="18"/>
       <c r="Z71" s="18"/>
       <c r="AA71" s="18"/>
@@ -15143,7 +15143,7 @@
       <c r="AH71" s="18"/>
       <c r="AI71" s="18"/>
     </row>
-    <row r="72" spans="1:35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -15158,18 +15158,18 @@
       <c r="L72" s="127"/>
       <c r="M72" s="127"/>
       <c r="N72" s="128"/>
-      <c r="O72" s="240" t="s">
+      <c r="O72" s="303" t="s">
         <v>126</v>
       </c>
-      <c r="P72" s="241"/>
-      <c r="Q72" s="241"/>
-      <c r="R72" s="241"/>
-      <c r="S72" s="241"/>
-      <c r="T72" s="241"/>
-      <c r="U72" s="241"/>
-      <c r="V72" s="241"/>
-      <c r="W72" s="241"/>
-      <c r="X72" s="242"/>
+      <c r="P72" s="304"/>
+      <c r="Q72" s="304"/>
+      <c r="R72" s="304"/>
+      <c r="S72" s="304"/>
+      <c r="T72" s="304"/>
+      <c r="U72" s="304"/>
+      <c r="V72" s="304"/>
+      <c r="W72" s="304"/>
+      <c r="X72" s="305"/>
       <c r="Y72" s="18"/>
       <c r="Z72" s="18"/>
       <c r="AA72" s="18"/>
@@ -15182,7 +15182,7 @@
       <c r="AH72" s="18"/>
       <c r="AI72" s="18"/>
     </row>
-    <row r="73" spans="1:35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -15197,18 +15197,18 @@
       <c r="L73" s="127"/>
       <c r="M73" s="127"/>
       <c r="N73" s="128"/>
-      <c r="O73" s="240" t="s">
+      <c r="O73" s="303" t="s">
         <v>127</v>
       </c>
-      <c r="P73" s="241"/>
-      <c r="Q73" s="241"/>
-      <c r="R73" s="241"/>
-      <c r="S73" s="241"/>
-      <c r="T73" s="241"/>
-      <c r="U73" s="241"/>
-      <c r="V73" s="241"/>
-      <c r="W73" s="241"/>
-      <c r="X73" s="242"/>
+      <c r="P73" s="304"/>
+      <c r="Q73" s="304"/>
+      <c r="R73" s="304"/>
+      <c r="S73" s="304"/>
+      <c r="T73" s="304"/>
+      <c r="U73" s="304"/>
+      <c r="V73" s="304"/>
+      <c r="W73" s="304"/>
+      <c r="X73" s="305"/>
       <c r="Y73" s="18"/>
       <c r="Z73" s="18"/>
       <c r="AA73" s="18"/>
@@ -15221,7 +15221,7 @@
       <c r="AH73" s="18"/>
       <c r="AI73" s="18"/>
     </row>
-    <row r="74" spans="1:35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
@@ -15260,7 +15260,7 @@
       <c r="AH74" s="18"/>
       <c r="AI74" s="18"/>
     </row>
-    <row r="75" spans="1:35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -15297,7 +15297,7 @@
       <c r="AH75" s="18"/>
       <c r="AI75" s="18"/>
     </row>
-    <row r="76" spans="1:35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -15336,7 +15336,7 @@
       <c r="AH76" s="18"/>
       <c r="AI76" s="18"/>
     </row>
-    <row r="77" spans="1:35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -15373,7 +15373,7 @@
       <c r="AH77" s="18"/>
       <c r="AI77" s="18"/>
     </row>
-    <row r="78" spans="1:35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A78" s="18"/>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -15412,7 +15412,7 @@
       <c r="AH78" s="18"/>
       <c r="AI78" s="18"/>
     </row>
-    <row r="79" spans="1:35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
@@ -15449,7 +15449,7 @@
       <c r="AH79" s="18"/>
       <c r="AI79" s="18"/>
     </row>
-    <row r="80" spans="1:35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
@@ -15486,7 +15486,7 @@
       <c r="AH80" s="18"/>
       <c r="AI80" s="18"/>
     </row>
-    <row r="81" spans="1:35">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
@@ -15507,43 +15507,43 @@
       <c r="AH81" s="18"/>
       <c r="AI81" s="18"/>
     </row>
-    <row r="82" spans="1:35">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
-      <c r="E82" s="264" t="s">
+      <c r="E82" s="268" t="s">
         <v>102</v>
       </c>
-      <c r="F82" s="264"/>
-      <c r="G82" s="264"/>
-      <c r="H82" s="263" t="s">
+      <c r="F82" s="268"/>
+      <c r="G82" s="268"/>
+      <c r="H82" s="269" t="s">
         <v>64</v>
       </c>
-      <c r="I82" s="263"/>
-      <c r="J82" s="263"/>
-      <c r="K82" s="263" t="s">
+      <c r="I82" s="269"/>
+      <c r="J82" s="269"/>
+      <c r="K82" s="269" t="s">
         <v>94</v>
       </c>
-      <c r="L82" s="263"/>
-      <c r="M82" s="263"/>
-      <c r="N82" s="263"/>
-      <c r="O82" s="265" t="s">
+      <c r="L82" s="269"/>
+      <c r="M82" s="269"/>
+      <c r="N82" s="269"/>
+      <c r="O82" s="270" t="s">
         <v>55</v>
       </c>
-      <c r="P82" s="266"/>
-      <c r="Q82" s="266"/>
-      <c r="R82" s="266"/>
-      <c r="S82" s="266"/>
-      <c r="T82" s="266"/>
-      <c r="U82" s="266"/>
-      <c r="V82" s="266"/>
-      <c r="W82" s="266"/>
-      <c r="X82" s="266"/>
-      <c r="Y82" s="266"/>
-      <c r="Z82" s="266"/>
-      <c r="AA82" s="266"/>
-      <c r="AB82" s="267"/>
+      <c r="P82" s="271"/>
+      <c r="Q82" s="271"/>
+      <c r="R82" s="271"/>
+      <c r="S82" s="271"/>
+      <c r="T82" s="271"/>
+      <c r="U82" s="271"/>
+      <c r="V82" s="271"/>
+      <c r="W82" s="271"/>
+      <c r="X82" s="271"/>
+      <c r="Y82" s="271"/>
+      <c r="Z82" s="271"/>
+      <c r="AA82" s="271"/>
+      <c r="AB82" s="272"/>
       <c r="AC82" s="18"/>
       <c r="AD82" s="18"/>
       <c r="AE82" s="18"/>
@@ -15552,7 +15552,7 @@
       <c r="AH82" s="18"/>
       <c r="AI82" s="18"/>
     </row>
-    <row r="83" spans="1:35">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
@@ -15562,33 +15562,33 @@
       </c>
       <c r="F83" s="161"/>
       <c r="G83" s="162"/>
-      <c r="H83" s="251" t="s">
+      <c r="H83" s="273" t="s">
         <v>218</v>
       </c>
-      <c r="I83" s="252"/>
-      <c r="J83" s="252"/>
-      <c r="K83" s="252" t="s">
+      <c r="I83" s="257"/>
+      <c r="J83" s="257"/>
+      <c r="K83" s="257" t="s">
         <v>131</v>
       </c>
-      <c r="L83" s="252"/>
-      <c r="M83" s="252"/>
-      <c r="N83" s="252"/>
-      <c r="O83" s="253" t="s">
+      <c r="L83" s="257"/>
+      <c r="M83" s="257"/>
+      <c r="N83" s="257"/>
+      <c r="O83" s="274" t="s">
         <v>132</v>
       </c>
-      <c r="P83" s="254"/>
-      <c r="Q83" s="254"/>
-      <c r="R83" s="254"/>
-      <c r="S83" s="254"/>
-      <c r="T83" s="254"/>
-      <c r="U83" s="254"/>
-      <c r="V83" s="254"/>
-      <c r="W83" s="254"/>
-      <c r="X83" s="254"/>
-      <c r="Y83" s="254"/>
-      <c r="Z83" s="254"/>
-      <c r="AA83" s="254"/>
-      <c r="AB83" s="255"/>
+      <c r="P83" s="241"/>
+      <c r="Q83" s="241"/>
+      <c r="R83" s="241"/>
+      <c r="S83" s="241"/>
+      <c r="T83" s="241"/>
+      <c r="U83" s="241"/>
+      <c r="V83" s="241"/>
+      <c r="W83" s="241"/>
+      <c r="X83" s="241"/>
+      <c r="Y83" s="241"/>
+      <c r="Z83" s="241"/>
+      <c r="AA83" s="241"/>
+      <c r="AB83" s="242"/>
       <c r="AC83" s="18"/>
       <c r="AD83" s="18"/>
       <c r="AE83" s="18"/>
@@ -15597,7 +15597,7 @@
       <c r="AH83" s="18"/>
       <c r="AI83" s="18"/>
     </row>
-    <row r="84" spans="1:35">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
@@ -15634,7 +15634,7 @@
       <c r="AH84" s="18"/>
       <c r="AI84" s="18"/>
     </row>
-    <row r="86" spans="1:35">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.15">
       <c r="D86" s="18" t="s">
         <v>133</v>
       </c>
@@ -15642,7 +15642,7 @@
       <c r="F86" s="18"/>
       <c r="G86" s="18"/>
     </row>
-    <row r="87" spans="1:35">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.15">
       <c r="D87" s="18"/>
       <c r="E87" s="18" t="s">
         <v>202</v>
@@ -15650,7 +15650,7 @@
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
     </row>
-    <row r="88" spans="1:35">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.15">
       <c r="D88" s="18"/>
       <c r="E88" s="18" t="s">
         <v>134</v>
@@ -15658,7 +15658,7 @@
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
     </row>
-    <row r="91" spans="1:35">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C91" s="37" t="s">
         <v>30</v>
       </c>
@@ -15692,7 +15692,7 @@
       <c r="AE91" s="37"/>
       <c r="AF91" s="37"/>
     </row>
-    <row r="92" spans="1:35">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C92" s="37"/>
       <c r="D92" s="37" t="s">
         <v>35</v>
@@ -15726,7 +15726,7 @@
       <c r="AE92" s="37"/>
       <c r="AF92" s="37"/>
     </row>
-    <row r="93" spans="1:35">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C93" s="37"/>
       <c r="D93" s="37"/>
       <c r="E93" s="37"/>
@@ -15758,7 +15758,7 @@
       <c r="AE93" s="37"/>
       <c r="AF93" s="37"/>
     </row>
-    <row r="94" spans="1:35">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C94" s="37"/>
       <c r="E94" s="39" t="s">
         <v>220</v>
@@ -15791,7 +15791,7 @@
       <c r="AE94" s="37"/>
       <c r="AF94" s="37"/>
     </row>
-    <row r="95" spans="1:35">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C95" s="37"/>
       <c r="D95" s="39"/>
       <c r="E95" s="39"/>
@@ -15823,49 +15823,49 @@
       <c r="AE95" s="37"/>
       <c r="AF95" s="37"/>
     </row>
-    <row r="96" spans="1:35">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C96" s="37"/>
       <c r="D96" s="37"/>
-      <c r="E96" s="268" t="s">
+      <c r="E96" s="297" t="s">
         <v>26</v>
       </c>
-      <c r="F96" s="268"/>
-      <c r="G96" s="244" t="s">
+      <c r="F96" s="297"/>
+      <c r="G96" s="298" t="s">
         <v>196</v>
       </c>
-      <c r="H96" s="244"/>
-      <c r="I96" s="244"/>
-      <c r="J96" s="244"/>
-      <c r="K96" s="244"/>
-      <c r="L96" s="244"/>
-      <c r="M96" s="268" t="s">
+      <c r="H96" s="298"/>
+      <c r="I96" s="298"/>
+      <c r="J96" s="298"/>
+      <c r="K96" s="298"/>
+      <c r="L96" s="298"/>
+      <c r="M96" s="297" t="s">
         <v>27</v>
       </c>
-      <c r="N96" s="268"/>
-      <c r="O96" s="271" t="s">
+      <c r="N96" s="297"/>
+      <c r="O96" s="258" t="s">
         <v>85</v>
       </c>
-      <c r="P96" s="272"/>
-      <c r="Q96" s="272"/>
-      <c r="R96" s="272"/>
-      <c r="S96" s="272"/>
-      <c r="T96" s="272"/>
-      <c r="U96" s="272"/>
-      <c r="V96" s="272"/>
-      <c r="W96" s="272"/>
-      <c r="X96" s="272"/>
-      <c r="Y96" s="272"/>
-      <c r="Z96" s="272"/>
-      <c r="AA96" s="272"/>
-      <c r="AB96" s="272"/>
-      <c r="AC96" s="272"/>
-      <c r="AD96" s="272"/>
-      <c r="AE96" s="272"/>
-      <c r="AF96" s="272"/>
-      <c r="AG96" s="272"/>
-      <c r="AH96" s="273"/>
-    </row>
-    <row r="98" spans="3:34">
+      <c r="P96" s="259"/>
+      <c r="Q96" s="259"/>
+      <c r="R96" s="259"/>
+      <c r="S96" s="259"/>
+      <c r="T96" s="259"/>
+      <c r="U96" s="259"/>
+      <c r="V96" s="259"/>
+      <c r="W96" s="259"/>
+      <c r="X96" s="259"/>
+      <c r="Y96" s="259"/>
+      <c r="Z96" s="259"/>
+      <c r="AA96" s="259"/>
+      <c r="AB96" s="259"/>
+      <c r="AC96" s="259"/>
+      <c r="AD96" s="259"/>
+      <c r="AE96" s="259"/>
+      <c r="AF96" s="259"/>
+      <c r="AG96" s="259"/>
+      <c r="AH96" s="260"/>
+    </row>
+    <row r="98" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C98" s="37"/>
       <c r="D98" s="37"/>
       <c r="E98" s="37"/>
@@ -15897,7 +15897,7 @@
       <c r="AE98" s="37"/>
       <c r="AF98" s="37"/>
     </row>
-    <row r="99" spans="3:34">
+    <row r="99" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C99" s="37"/>
       <c r="D99" s="37" t="s">
         <v>36</v>
@@ -15931,7 +15931,7 @@
       <c r="AE99" s="37"/>
       <c r="AF99" s="37"/>
     </row>
-    <row r="100" spans="3:34">
+    <row r="100" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C100" s="37"/>
       <c r="D100" s="37"/>
       <c r="E100" s="37"/>
@@ -15963,157 +15963,157 @@
       <c r="AE100" s="37"/>
       <c r="AF100" s="37"/>
     </row>
-    <row r="101" spans="3:34">
+    <row r="101" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C101" s="37"/>
       <c r="D101" s="37"/>
-      <c r="E101" s="269" t="s">
+      <c r="E101" s="299" t="s">
         <v>37</v>
       </c>
-      <c r="F101" s="256" t="s">
+      <c r="F101" s="261" t="s">
         <v>28</v>
       </c>
-      <c r="G101" s="257"/>
-      <c r="H101" s="257"/>
-      <c r="I101" s="258"/>
-      <c r="J101" s="256" t="s">
+      <c r="G101" s="262"/>
+      <c r="H101" s="262"/>
+      <c r="I101" s="263"/>
+      <c r="J101" s="261" t="s">
         <v>15</v>
       </c>
-      <c r="K101" s="257"/>
-      <c r="L101" s="257"/>
-      <c r="M101" s="258"/>
-      <c r="N101" s="262" t="s">
+      <c r="K101" s="262"/>
+      <c r="L101" s="262"/>
+      <c r="M101" s="263"/>
+      <c r="N101" s="301" t="s">
         <v>13</v>
       </c>
-      <c r="O101" s="262"/>
-      <c r="P101" s="262"/>
-      <c r="Q101" s="262"/>
-      <c r="R101" s="262"/>
-      <c r="S101" s="262"/>
-      <c r="T101" s="262"/>
-      <c r="U101" s="262"/>
-      <c r="V101" s="262"/>
-      <c r="W101" s="256" t="s">
+      <c r="O101" s="301"/>
+      <c r="P101" s="301"/>
+      <c r="Q101" s="301"/>
+      <c r="R101" s="301"/>
+      <c r="S101" s="301"/>
+      <c r="T101" s="301"/>
+      <c r="U101" s="301"/>
+      <c r="V101" s="301"/>
+      <c r="W101" s="261" t="s">
         <v>38</v>
       </c>
-      <c r="X101" s="257"/>
-      <c r="Y101" s="257"/>
-      <c r="Z101" s="257"/>
-      <c r="AA101" s="257"/>
-      <c r="AB101" s="257"/>
-      <c r="AC101" s="258"/>
-      <c r="AD101" s="256" t="s">
+      <c r="X101" s="262"/>
+      <c r="Y101" s="262"/>
+      <c r="Z101" s="262"/>
+      <c r="AA101" s="262"/>
+      <c r="AB101" s="262"/>
+      <c r="AC101" s="263"/>
+      <c r="AD101" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="AE101" s="257"/>
-      <c r="AF101" s="257"/>
-      <c r="AG101" s="257"/>
-      <c r="AH101" s="258"/>
-    </row>
-    <row r="102" spans="3:34">
+      <c r="AE101" s="262"/>
+      <c r="AF101" s="262"/>
+      <c r="AG101" s="262"/>
+      <c r="AH101" s="263"/>
+    </row>
+    <row r="102" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C102" s="37"/>
       <c r="D102" s="39"/>
-      <c r="E102" s="270"/>
-      <c r="F102" s="259"/>
-      <c r="G102" s="260"/>
-      <c r="H102" s="260"/>
-      <c r="I102" s="261"/>
-      <c r="J102" s="259"/>
-      <c r="K102" s="260"/>
-      <c r="L102" s="260"/>
-      <c r="M102" s="261"/>
-      <c r="N102" s="262" t="s">
+      <c r="E102" s="300"/>
+      <c r="F102" s="264"/>
+      <c r="G102" s="265"/>
+      <c r="H102" s="265"/>
+      <c r="I102" s="266"/>
+      <c r="J102" s="264"/>
+      <c r="K102" s="265"/>
+      <c r="L102" s="265"/>
+      <c r="M102" s="266"/>
+      <c r="N102" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="O102" s="262"/>
-      <c r="P102" s="262"/>
-      <c r="Q102" s="262"/>
-      <c r="R102" s="262"/>
-      <c r="S102" s="263" t="s">
+      <c r="O102" s="301"/>
+      <c r="P102" s="301"/>
+      <c r="Q102" s="301"/>
+      <c r="R102" s="301"/>
+      <c r="S102" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="T102" s="263"/>
-      <c r="U102" s="263"/>
-      <c r="V102" s="263"/>
-      <c r="W102" s="259"/>
-      <c r="X102" s="260"/>
-      <c r="Y102" s="260"/>
-      <c r="Z102" s="260"/>
-      <c r="AA102" s="260"/>
-      <c r="AB102" s="260"/>
-      <c r="AC102" s="261"/>
-      <c r="AD102" s="259"/>
-      <c r="AE102" s="260"/>
-      <c r="AF102" s="260"/>
-      <c r="AG102" s="260"/>
-      <c r="AH102" s="261"/>
-    </row>
-    <row r="103" spans="3:34">
+      <c r="T102" s="269"/>
+      <c r="U102" s="269"/>
+      <c r="V102" s="269"/>
+      <c r="W102" s="264"/>
+      <c r="X102" s="265"/>
+      <c r="Y102" s="265"/>
+      <c r="Z102" s="265"/>
+      <c r="AA102" s="265"/>
+      <c r="AB102" s="265"/>
+      <c r="AC102" s="266"/>
+      <c r="AD102" s="264"/>
+      <c r="AE102" s="265"/>
+      <c r="AF102" s="265"/>
+      <c r="AG102" s="265"/>
+      <c r="AH102" s="266"/>
+    </row>
+    <row r="103" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C103" s="37"/>
       <c r="D103" s="39"/>
-      <c r="E103" s="249" t="s">
+      <c r="E103" s="306" t="s">
         <v>135</v>
       </c>
-      <c r="F103" s="249"/>
-      <c r="G103" s="249"/>
-      <c r="H103" s="249"/>
-      <c r="I103" s="249"/>
-      <c r="J103" s="249"/>
-      <c r="K103" s="249"/>
-      <c r="L103" s="249"/>
-      <c r="M103" s="249"/>
-      <c r="N103" s="249"/>
-      <c r="O103" s="249"/>
-      <c r="P103" s="249"/>
-      <c r="Q103" s="249"/>
-      <c r="R103" s="249"/>
-      <c r="S103" s="249"/>
-      <c r="T103" s="249"/>
-      <c r="U103" s="249"/>
-      <c r="V103" s="249"/>
-      <c r="W103" s="249"/>
-      <c r="X103" s="249"/>
-      <c r="Y103" s="249"/>
-      <c r="Z103" s="249"/>
-      <c r="AA103" s="249"/>
-      <c r="AB103" s="249"/>
-      <c r="AC103" s="249"/>
-      <c r="AD103" s="249"/>
-      <c r="AE103" s="249"/>
-      <c r="AF103" s="249"/>
-      <c r="AG103" s="249"/>
-      <c r="AH103" s="249"/>
-    </row>
-    <row r="104" spans="3:34">
+      <c r="F103" s="306"/>
+      <c r="G103" s="306"/>
+      <c r="H103" s="306"/>
+      <c r="I103" s="306"/>
+      <c r="J103" s="306"/>
+      <c r="K103" s="306"/>
+      <c r="L103" s="306"/>
+      <c r="M103" s="306"/>
+      <c r="N103" s="306"/>
+      <c r="O103" s="306"/>
+      <c r="P103" s="306"/>
+      <c r="Q103" s="306"/>
+      <c r="R103" s="306"/>
+      <c r="S103" s="306"/>
+      <c r="T103" s="306"/>
+      <c r="U103" s="306"/>
+      <c r="V103" s="306"/>
+      <c r="W103" s="306"/>
+      <c r="X103" s="306"/>
+      <c r="Y103" s="306"/>
+      <c r="Z103" s="306"/>
+      <c r="AA103" s="306"/>
+      <c r="AB103" s="306"/>
+      <c r="AC103" s="306"/>
+      <c r="AD103" s="306"/>
+      <c r="AE103" s="306"/>
+      <c r="AF103" s="306"/>
+      <c r="AG103" s="306"/>
+      <c r="AH103" s="306"/>
+    </row>
+    <row r="104" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C104" s="37"/>
       <c r="D104" s="39"/>
       <c r="E104" s="41">
         <v>1</v>
       </c>
-      <c r="F104" s="244" t="s">
+      <c r="F104" s="298" t="s">
         <v>136</v>
       </c>
-      <c r="G104" s="244"/>
-      <c r="H104" s="244"/>
-      <c r="I104" s="244"/>
+      <c r="G104" s="298"/>
+      <c r="H104" s="298"/>
+      <c r="I104" s="298"/>
       <c r="J104" s="232" t="s">
         <v>137</v>
       </c>
       <c r="K104" s="232"/>
       <c r="L104" s="232"/>
       <c r="M104" s="232"/>
-      <c r="N104" s="246" t="s">
+      <c r="N104" s="255" t="s">
         <v>138</v>
       </c>
-      <c r="O104" s="246"/>
-      <c r="P104" s="246"/>
-      <c r="Q104" s="246"/>
-      <c r="R104" s="246"/>
-      <c r="S104" s="250" t="s">
+      <c r="O104" s="255"/>
+      <c r="P104" s="255"/>
+      <c r="Q104" s="255"/>
+      <c r="R104" s="255"/>
+      <c r="S104" s="256" t="s">
         <v>138</v>
       </c>
-      <c r="T104" s="250"/>
-      <c r="U104" s="250"/>
-      <c r="V104" s="250"/>
+      <c r="T104" s="256"/>
+      <c r="U104" s="256"/>
+      <c r="V104" s="256"/>
       <c r="W104" s="233" t="s">
         <v>139</v>
       </c>
@@ -16129,37 +16129,37 @@
       <c r="AG104" s="233"/>
       <c r="AH104" s="233"/>
     </row>
-    <row r="105" spans="3:34">
+    <row r="105" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C105" s="37"/>
       <c r="D105" s="39"/>
       <c r="E105" s="41">
         <v>2</v>
       </c>
-      <c r="F105" s="244" t="s">
+      <c r="F105" s="298" t="s">
         <v>140</v>
       </c>
-      <c r="G105" s="244"/>
-      <c r="H105" s="244"/>
-      <c r="I105" s="244"/>
+      <c r="G105" s="298"/>
+      <c r="H105" s="298"/>
+      <c r="I105" s="298"/>
       <c r="J105" s="232" t="s">
         <v>141</v>
       </c>
       <c r="K105" s="232"/>
       <c r="L105" s="232"/>
       <c r="M105" s="232"/>
-      <c r="N105" s="246" t="s">
+      <c r="N105" s="255" t="s">
         <v>81</v>
       </c>
-      <c r="O105" s="246"/>
-      <c r="P105" s="246"/>
-      <c r="Q105" s="246"/>
-      <c r="R105" s="246"/>
-      <c r="S105" s="250" t="s">
+      <c r="O105" s="255"/>
+      <c r="P105" s="255"/>
+      <c r="Q105" s="255"/>
+      <c r="R105" s="255"/>
+      <c r="S105" s="256" t="s">
         <v>142</v>
       </c>
-      <c r="T105" s="250"/>
-      <c r="U105" s="250"/>
-      <c r="V105" s="250"/>
+      <c r="T105" s="256"/>
+      <c r="U105" s="256"/>
+      <c r="V105" s="256"/>
       <c r="W105" s="233" t="s">
         <v>138</v>
       </c>
@@ -16175,37 +16175,37 @@
       <c r="AG105" s="233"/>
       <c r="AH105" s="233"/>
     </row>
-    <row r="106" spans="3:34">
+    <row r="106" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C106" s="37"/>
       <c r="D106" s="39"/>
       <c r="E106" s="41">
         <v>3</v>
       </c>
-      <c r="F106" s="244" t="s">
+      <c r="F106" s="298" t="s">
         <v>143</v>
       </c>
-      <c r="G106" s="244"/>
-      <c r="H106" s="244"/>
-      <c r="I106" s="244"/>
+      <c r="G106" s="298"/>
+      <c r="H106" s="298"/>
+      <c r="I106" s="298"/>
       <c r="J106" s="232" t="s">
         <v>144</v>
       </c>
       <c r="K106" s="232"/>
       <c r="L106" s="232"/>
       <c r="M106" s="232"/>
-      <c r="N106" s="246" t="s">
+      <c r="N106" s="255" t="s">
         <v>138</v>
       </c>
-      <c r="O106" s="246"/>
-      <c r="P106" s="246"/>
-      <c r="Q106" s="246"/>
-      <c r="R106" s="246"/>
-      <c r="S106" s="250" t="s">
+      <c r="O106" s="255"/>
+      <c r="P106" s="255"/>
+      <c r="Q106" s="255"/>
+      <c r="R106" s="255"/>
+      <c r="S106" s="256" t="s">
         <v>138</v>
       </c>
-      <c r="T106" s="250"/>
-      <c r="U106" s="250"/>
-      <c r="V106" s="250"/>
+      <c r="T106" s="256"/>
+      <c r="U106" s="256"/>
+      <c r="V106" s="256"/>
       <c r="W106" s="233" t="s">
         <v>145</v>
       </c>
@@ -16221,37 +16221,37 @@
       <c r="AG106" s="233"/>
       <c r="AH106" s="233"/>
     </row>
-    <row r="107" spans="3:34">
+    <row r="107" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C107" s="37"/>
       <c r="D107" s="39"/>
       <c r="E107" s="41">
         <v>4</v>
       </c>
-      <c r="F107" s="244" t="s">
+      <c r="F107" s="298" t="s">
         <v>146</v>
       </c>
-      <c r="G107" s="244"/>
-      <c r="H107" s="244"/>
-      <c r="I107" s="244"/>
+      <c r="G107" s="298"/>
+      <c r="H107" s="298"/>
+      <c r="I107" s="298"/>
       <c r="J107" s="232" t="s">
         <v>147</v>
       </c>
       <c r="K107" s="232"/>
       <c r="L107" s="232"/>
       <c r="M107" s="232"/>
-      <c r="N107" s="246" t="s">
+      <c r="N107" s="255" t="s">
         <v>138</v>
       </c>
-      <c r="O107" s="246"/>
-      <c r="P107" s="246"/>
-      <c r="Q107" s="246"/>
-      <c r="R107" s="246"/>
-      <c r="S107" s="250" t="s">
+      <c r="O107" s="255"/>
+      <c r="P107" s="255"/>
+      <c r="Q107" s="255"/>
+      <c r="R107" s="255"/>
+      <c r="S107" s="256" t="s">
         <v>138</v>
       </c>
-      <c r="T107" s="250"/>
-      <c r="U107" s="250"/>
-      <c r="V107" s="250"/>
+      <c r="T107" s="256"/>
+      <c r="U107" s="256"/>
+      <c r="V107" s="256"/>
       <c r="W107" s="233" t="s">
         <v>148</v>
       </c>
@@ -16267,35 +16267,35 @@
       <c r="AG107" s="233"/>
       <c r="AH107" s="233"/>
     </row>
-    <row r="108" spans="3:34">
+    <row r="108" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E108" s="41">
         <v>5</v>
       </c>
-      <c r="F108" s="244" t="s">
+      <c r="F108" s="298" t="s">
         <v>149</v>
       </c>
-      <c r="G108" s="244"/>
-      <c r="H108" s="244"/>
-      <c r="I108" s="244"/>
+      <c r="G108" s="298"/>
+      <c r="H108" s="298"/>
+      <c r="I108" s="298"/>
       <c r="J108" s="232" t="s">
         <v>150</v>
       </c>
       <c r="K108" s="232"/>
       <c r="L108" s="232"/>
       <c r="M108" s="232"/>
-      <c r="N108" s="246" t="s">
+      <c r="N108" s="255" t="s">
         <v>138</v>
       </c>
-      <c r="O108" s="246"/>
-      <c r="P108" s="246"/>
-      <c r="Q108" s="246"/>
-      <c r="R108" s="246"/>
-      <c r="S108" s="250" t="s">
+      <c r="O108" s="255"/>
+      <c r="P108" s="255"/>
+      <c r="Q108" s="255"/>
+      <c r="R108" s="255"/>
+      <c r="S108" s="256" t="s">
         <v>138</v>
       </c>
-      <c r="T108" s="250"/>
-      <c r="U108" s="250"/>
-      <c r="V108" s="250"/>
+      <c r="T108" s="256"/>
+      <c r="U108" s="256"/>
+      <c r="V108" s="256"/>
       <c r="W108" s="233" t="s">
         <v>148</v>
       </c>
@@ -16311,35 +16311,35 @@
       <c r="AG108" s="233"/>
       <c r="AH108" s="233"/>
     </row>
-    <row r="109" spans="3:34">
+    <row r="109" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E109" s="41">
         <v>6</v>
       </c>
-      <c r="F109" s="244" t="s">
+      <c r="F109" s="298" t="s">
         <v>151</v>
       </c>
-      <c r="G109" s="244"/>
-      <c r="H109" s="244"/>
-      <c r="I109" s="244"/>
+      <c r="G109" s="298"/>
+      <c r="H109" s="298"/>
+      <c r="I109" s="298"/>
       <c r="J109" s="232" t="s">
         <v>101</v>
       </c>
       <c r="K109" s="232"/>
       <c r="L109" s="232"/>
       <c r="M109" s="232"/>
-      <c r="N109" s="246" t="s">
+      <c r="N109" s="255" t="s">
         <v>138</v>
       </c>
-      <c r="O109" s="246"/>
-      <c r="P109" s="246"/>
-      <c r="Q109" s="246"/>
-      <c r="R109" s="246"/>
-      <c r="S109" s="250" t="s">
+      <c r="O109" s="255"/>
+      <c r="P109" s="255"/>
+      <c r="Q109" s="255"/>
+      <c r="R109" s="255"/>
+      <c r="S109" s="256" t="s">
         <v>138</v>
       </c>
-      <c r="T109" s="250"/>
-      <c r="U109" s="250"/>
-      <c r="V109" s="250"/>
+      <c r="T109" s="256"/>
+      <c r="U109" s="256"/>
+      <c r="V109" s="256"/>
       <c r="W109" s="233" t="s">
         <v>152</v>
       </c>
@@ -16355,35 +16355,35 @@
       <c r="AG109" s="233"/>
       <c r="AH109" s="233"/>
     </row>
-    <row r="110" spans="3:34">
+    <row r="110" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E110" s="41">
         <v>7</v>
       </c>
-      <c r="F110" s="244" t="s">
+      <c r="F110" s="298" t="s">
         <v>153</v>
       </c>
-      <c r="G110" s="244"/>
-      <c r="H110" s="244"/>
-      <c r="I110" s="244"/>
+      <c r="G110" s="298"/>
+      <c r="H110" s="298"/>
+      <c r="I110" s="298"/>
       <c r="J110" s="232" t="s">
         <v>154</v>
       </c>
       <c r="K110" s="232"/>
       <c r="L110" s="232"/>
       <c r="M110" s="232"/>
-      <c r="N110" s="246" t="s">
+      <c r="N110" s="255" t="s">
         <v>155</v>
       </c>
-      <c r="O110" s="246"/>
-      <c r="P110" s="246"/>
-      <c r="Q110" s="246"/>
-      <c r="R110" s="246"/>
-      <c r="S110" s="250" t="s">
+      <c r="O110" s="255"/>
+      <c r="P110" s="255"/>
+      <c r="Q110" s="255"/>
+      <c r="R110" s="255"/>
+      <c r="S110" s="256" t="s">
         <v>155</v>
       </c>
-      <c r="T110" s="250"/>
-      <c r="U110" s="250"/>
-      <c r="V110" s="250"/>
+      <c r="T110" s="256"/>
+      <c r="U110" s="256"/>
+      <c r="V110" s="256"/>
       <c r="W110" s="233" t="s">
         <v>156</v>
       </c>
@@ -16399,69 +16399,69 @@
       <c r="AG110" s="233"/>
       <c r="AH110" s="233"/>
     </row>
-    <row r="111" spans="3:34">
-      <c r="E111" s="249" t="s">
+    <row r="111" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="E111" s="306" t="s">
         <v>157</v>
       </c>
-      <c r="F111" s="249"/>
-      <c r="G111" s="249"/>
-      <c r="H111" s="249"/>
-      <c r="I111" s="249"/>
-      <c r="J111" s="249"/>
-      <c r="K111" s="249"/>
-      <c r="L111" s="249"/>
-      <c r="M111" s="249"/>
-      <c r="N111" s="249"/>
-      <c r="O111" s="249"/>
-      <c r="P111" s="249"/>
-      <c r="Q111" s="249"/>
-      <c r="R111" s="249"/>
-      <c r="S111" s="249"/>
-      <c r="T111" s="249"/>
-      <c r="U111" s="249"/>
-      <c r="V111" s="249"/>
-      <c r="W111" s="249"/>
-      <c r="X111" s="249"/>
-      <c r="Y111" s="249"/>
-      <c r="Z111" s="249"/>
-      <c r="AA111" s="249"/>
-      <c r="AB111" s="249"/>
-      <c r="AC111" s="249"/>
-      <c r="AD111" s="249"/>
-      <c r="AE111" s="249"/>
-      <c r="AF111" s="249"/>
-      <c r="AG111" s="249"/>
-      <c r="AH111" s="249"/>
-    </row>
-    <row r="112" spans="3:34">
+      <c r="F111" s="306"/>
+      <c r="G111" s="306"/>
+      <c r="H111" s="306"/>
+      <c r="I111" s="306"/>
+      <c r="J111" s="306"/>
+      <c r="K111" s="306"/>
+      <c r="L111" s="306"/>
+      <c r="M111" s="306"/>
+      <c r="N111" s="306"/>
+      <c r="O111" s="306"/>
+      <c r="P111" s="306"/>
+      <c r="Q111" s="306"/>
+      <c r="R111" s="306"/>
+      <c r="S111" s="306"/>
+      <c r="T111" s="306"/>
+      <c r="U111" s="306"/>
+      <c r="V111" s="306"/>
+      <c r="W111" s="306"/>
+      <c r="X111" s="306"/>
+      <c r="Y111" s="306"/>
+      <c r="Z111" s="306"/>
+      <c r="AA111" s="306"/>
+      <c r="AB111" s="306"/>
+      <c r="AC111" s="306"/>
+      <c r="AD111" s="306"/>
+      <c r="AE111" s="306"/>
+      <c r="AF111" s="306"/>
+      <c r="AG111" s="306"/>
+      <c r="AH111" s="306"/>
+    </row>
+    <row r="112" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E112" s="41">
         <v>8</v>
       </c>
-      <c r="F112" s="243" t="s">
+      <c r="F112" s="307" t="s">
         <v>158</v>
       </c>
-      <c r="G112" s="243"/>
-      <c r="H112" s="243"/>
-      <c r="I112" s="243"/>
+      <c r="G112" s="307"/>
+      <c r="H112" s="307"/>
+      <c r="I112" s="307"/>
       <c r="J112" s="232" t="s">
         <v>159</v>
       </c>
       <c r="K112" s="232"/>
       <c r="L112" s="232"/>
       <c r="M112" s="232"/>
-      <c r="N112" s="245" t="s">
+      <c r="N112" s="308" t="s">
         <v>111</v>
       </c>
-      <c r="O112" s="245"/>
-      <c r="P112" s="245"/>
-      <c r="Q112" s="245"/>
-      <c r="R112" s="245"/>
-      <c r="S112" s="245" t="s">
+      <c r="O112" s="308"/>
+      <c r="P112" s="308"/>
+      <c r="Q112" s="308"/>
+      <c r="R112" s="308"/>
+      <c r="S112" s="308" t="s">
         <v>159</v>
       </c>
-      <c r="T112" s="245"/>
-      <c r="U112" s="245"/>
-      <c r="V112" s="245"/>
+      <c r="T112" s="308"/>
+      <c r="U112" s="308"/>
+      <c r="V112" s="308"/>
       <c r="W112" s="233" t="s">
         <v>155</v>
       </c>
@@ -16477,35 +16477,35 @@
       <c r="AG112" s="233"/>
       <c r="AH112" s="233"/>
     </row>
-    <row r="113" spans="5:34">
+    <row r="113" spans="5:34" x14ac:dyDescent="0.15">
       <c r="E113" s="41">
         <v>9</v>
       </c>
-      <c r="F113" s="243" t="s">
+      <c r="F113" s="307" t="s">
         <v>160</v>
       </c>
-      <c r="G113" s="243"/>
-      <c r="H113" s="243"/>
-      <c r="I113" s="243"/>
+      <c r="G113" s="307"/>
+      <c r="H113" s="307"/>
+      <c r="I113" s="307"/>
       <c r="J113" s="232" t="s">
         <v>161</v>
       </c>
       <c r="K113" s="232"/>
       <c r="L113" s="232"/>
       <c r="M113" s="232"/>
-      <c r="N113" s="245" t="s">
+      <c r="N113" s="308" t="s">
         <v>111</v>
       </c>
-      <c r="O113" s="245"/>
-      <c r="P113" s="245"/>
-      <c r="Q113" s="245"/>
-      <c r="R113" s="245"/>
-      <c r="S113" s="245" t="s">
+      <c r="O113" s="308"/>
+      <c r="P113" s="308"/>
+      <c r="Q113" s="308"/>
+      <c r="R113" s="308"/>
+      <c r="S113" s="308" t="s">
         <v>162</v>
       </c>
-      <c r="T113" s="245"/>
-      <c r="U113" s="245"/>
-      <c r="V113" s="245"/>
+      <c r="T113" s="308"/>
+      <c r="U113" s="308"/>
+      <c r="V113" s="308"/>
       <c r="W113" s="233" t="s">
         <v>155</v>
       </c>
@@ -16521,35 +16521,35 @@
       <c r="AG113" s="233"/>
       <c r="AH113" s="233"/>
     </row>
-    <row r="114" spans="5:34">
+    <row r="114" spans="5:34" x14ac:dyDescent="0.15">
       <c r="E114" s="41">
         <v>10</v>
       </c>
-      <c r="F114" s="243" t="s">
+      <c r="F114" s="307" t="s">
         <v>163</v>
       </c>
-      <c r="G114" s="243"/>
-      <c r="H114" s="243"/>
-      <c r="I114" s="243"/>
+      <c r="G114" s="307"/>
+      <c r="H114" s="307"/>
+      <c r="I114" s="307"/>
       <c r="J114" s="232" t="s">
         <v>164</v>
       </c>
       <c r="K114" s="232"/>
       <c r="L114" s="232"/>
       <c r="M114" s="232"/>
-      <c r="N114" s="245" t="s">
+      <c r="N114" s="308" t="s">
         <v>111</v>
       </c>
-      <c r="O114" s="245"/>
-      <c r="P114" s="245"/>
-      <c r="Q114" s="245"/>
-      <c r="R114" s="245"/>
-      <c r="S114" s="245" t="s">
+      <c r="O114" s="308"/>
+      <c r="P114" s="308"/>
+      <c r="Q114" s="308"/>
+      <c r="R114" s="308"/>
+      <c r="S114" s="308" t="s">
         <v>165</v>
       </c>
-      <c r="T114" s="245"/>
-      <c r="U114" s="245"/>
-      <c r="V114" s="245"/>
+      <c r="T114" s="308"/>
+      <c r="U114" s="308"/>
+      <c r="V114" s="308"/>
       <c r="W114" s="233" t="s">
         <v>155</v>
       </c>
@@ -16565,35 +16565,35 @@
       <c r="AG114" s="233"/>
       <c r="AH114" s="233"/>
     </row>
-    <row r="115" spans="5:34">
+    <row r="115" spans="5:34" x14ac:dyDescent="0.15">
       <c r="E115" s="41">
         <v>11</v>
       </c>
-      <c r="F115" s="243" t="s">
+      <c r="F115" s="307" t="s">
         <v>166</v>
       </c>
-      <c r="G115" s="243"/>
-      <c r="H115" s="243"/>
-      <c r="I115" s="243"/>
+      <c r="G115" s="307"/>
+      <c r="H115" s="307"/>
+      <c r="I115" s="307"/>
       <c r="J115" s="232" t="s">
         <v>167</v>
       </c>
       <c r="K115" s="232"/>
       <c r="L115" s="232"/>
       <c r="M115" s="232"/>
-      <c r="N115" s="245" t="s">
+      <c r="N115" s="308" t="s">
         <v>111</v>
       </c>
-      <c r="O115" s="245"/>
-      <c r="P115" s="245"/>
-      <c r="Q115" s="245"/>
-      <c r="R115" s="245"/>
-      <c r="S115" s="245" t="s">
+      <c r="O115" s="308"/>
+      <c r="P115" s="308"/>
+      <c r="Q115" s="308"/>
+      <c r="R115" s="308"/>
+      <c r="S115" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="T115" s="245"/>
-      <c r="U115" s="245"/>
-      <c r="V115" s="245"/>
+      <c r="T115" s="308"/>
+      <c r="U115" s="308"/>
+      <c r="V115" s="308"/>
       <c r="W115" s="233" t="s">
         <v>155</v>
       </c>
@@ -16609,35 +16609,35 @@
       <c r="AG115" s="233"/>
       <c r="AH115" s="233"/>
     </row>
-    <row r="116" spans="5:34">
+    <row r="116" spans="5:34" x14ac:dyDescent="0.15">
       <c r="E116" s="41">
         <v>12</v>
       </c>
-      <c r="F116" s="243" t="s">
+      <c r="F116" s="307" t="s">
         <v>169</v>
       </c>
-      <c r="G116" s="243"/>
-      <c r="H116" s="243"/>
-      <c r="I116" s="243"/>
+      <c r="G116" s="307"/>
+      <c r="H116" s="307"/>
+      <c r="I116" s="307"/>
       <c r="J116" s="232" t="s">
         <v>170</v>
       </c>
       <c r="K116" s="232"/>
       <c r="L116" s="232"/>
       <c r="M116" s="232"/>
-      <c r="N116" s="245" t="s">
+      <c r="N116" s="308" t="s">
         <v>111</v>
       </c>
-      <c r="O116" s="245"/>
-      <c r="P116" s="245"/>
-      <c r="Q116" s="245"/>
-      <c r="R116" s="245"/>
-      <c r="S116" s="245" t="s">
+      <c r="O116" s="308"/>
+      <c r="P116" s="308"/>
+      <c r="Q116" s="308"/>
+      <c r="R116" s="308"/>
+      <c r="S116" s="308" t="s">
         <v>171</v>
       </c>
-      <c r="T116" s="245"/>
-      <c r="U116" s="245"/>
-      <c r="V116" s="245"/>
+      <c r="T116" s="308"/>
+      <c r="U116" s="308"/>
+      <c r="V116" s="308"/>
       <c r="W116" s="233" t="s">
         <v>155</v>
       </c>
@@ -16653,35 +16653,35 @@
       <c r="AG116" s="233"/>
       <c r="AH116" s="233"/>
     </row>
-    <row r="117" spans="5:34">
+    <row r="117" spans="5:34" x14ac:dyDescent="0.15">
       <c r="E117" s="41">
         <v>13</v>
       </c>
-      <c r="F117" s="243" t="s">
+      <c r="F117" s="307" t="s">
         <v>172</v>
       </c>
-      <c r="G117" s="243"/>
-      <c r="H117" s="243"/>
-      <c r="I117" s="243"/>
+      <c r="G117" s="307"/>
+      <c r="H117" s="307"/>
+      <c r="I117" s="307"/>
       <c r="J117" s="232" t="s">
         <v>173</v>
       </c>
       <c r="K117" s="232"/>
       <c r="L117" s="232"/>
       <c r="M117" s="232"/>
-      <c r="N117" s="245" t="s">
+      <c r="N117" s="308" t="s">
         <v>111</v>
       </c>
-      <c r="O117" s="245"/>
-      <c r="P117" s="245"/>
-      <c r="Q117" s="245"/>
-      <c r="R117" s="245"/>
-      <c r="S117" s="245" t="s">
+      <c r="O117" s="308"/>
+      <c r="P117" s="308"/>
+      <c r="Q117" s="308"/>
+      <c r="R117" s="308"/>
+      <c r="S117" s="308" t="s">
         <v>174</v>
       </c>
-      <c r="T117" s="245"/>
-      <c r="U117" s="245"/>
-      <c r="V117" s="245"/>
+      <c r="T117" s="308"/>
+      <c r="U117" s="308"/>
+      <c r="V117" s="308"/>
       <c r="W117" s="233" t="s">
         <v>155</v>
       </c>
@@ -16697,38 +16697,38 @@
       <c r="AG117" s="233"/>
       <c r="AH117" s="233"/>
     </row>
-    <row r="118" spans="5:34" ht="22.5" customHeight="1">
+    <row r="118" spans="5:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E118" s="41">
         <v>14</v>
       </c>
-      <c r="F118" s="243" t="s">
+      <c r="F118" s="307" t="s">
         <v>175</v>
       </c>
-      <c r="G118" s="243"/>
-      <c r="H118" s="243"/>
-      <c r="I118" s="243"/>
-      <c r="J118" s="248" t="s">
+      <c r="G118" s="307"/>
+      <c r="H118" s="307"/>
+      <c r="I118" s="307"/>
+      <c r="J118" s="309" t="s">
         <v>176</v>
       </c>
-      <c r="K118" s="244" t="s">
+      <c r="K118" s="298" t="s">
         <v>177</v>
       </c>
-      <c r="L118" s="244"/>
-      <c r="M118" s="244"/>
-      <c r="N118" s="245" t="s">
+      <c r="L118" s="298"/>
+      <c r="M118" s="298"/>
+      <c r="N118" s="308" t="s">
         <v>178</v>
       </c>
-      <c r="O118" s="245"/>
-      <c r="P118" s="245"/>
-      <c r="Q118" s="245"/>
-      <c r="R118" s="245"/>
-      <c r="S118" s="245" t="s">
+      <c r="O118" s="308"/>
+      <c r="P118" s="308"/>
+      <c r="Q118" s="308"/>
+      <c r="R118" s="308"/>
+      <c r="S118" s="308" t="s">
         <v>179</v>
       </c>
-      <c r="T118" s="245"/>
-      <c r="U118" s="245"/>
-      <c r="V118" s="245"/>
-      <c r="W118" s="247" t="s">
+      <c r="T118" s="308"/>
+      <c r="U118" s="308"/>
+      <c r="V118" s="308"/>
+      <c r="W118" s="278" t="s">
         <v>180</v>
       </c>
       <c r="X118" s="233"/>
@@ -16743,36 +16743,36 @@
       <c r="AG118" s="233"/>
       <c r="AH118" s="233"/>
     </row>
-    <row r="119" spans="5:34" ht="22.5" customHeight="1">
+    <row r="119" spans="5:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E119" s="41">
         <v>15</v>
       </c>
-      <c r="F119" s="243" t="s">
+      <c r="F119" s="307" t="s">
         <v>181</v>
       </c>
-      <c r="G119" s="243"/>
-      <c r="H119" s="243"/>
-      <c r="I119" s="243"/>
-      <c r="J119" s="248"/>
-      <c r="K119" s="244" t="s">
+      <c r="G119" s="307"/>
+      <c r="H119" s="307"/>
+      <c r="I119" s="307"/>
+      <c r="J119" s="309"/>
+      <c r="K119" s="298" t="s">
         <v>182</v>
       </c>
-      <c r="L119" s="244"/>
-      <c r="M119" s="244"/>
-      <c r="N119" s="245" t="s">
+      <c r="L119" s="298"/>
+      <c r="M119" s="298"/>
+      <c r="N119" s="308" t="s">
         <v>178</v>
       </c>
-      <c r="O119" s="245"/>
-      <c r="P119" s="245"/>
-      <c r="Q119" s="245"/>
-      <c r="R119" s="245"/>
-      <c r="S119" s="245" t="s">
+      <c r="O119" s="308"/>
+      <c r="P119" s="308"/>
+      <c r="Q119" s="308"/>
+      <c r="R119" s="308"/>
+      <c r="S119" s="308" t="s">
         <v>183</v>
       </c>
-      <c r="T119" s="245"/>
-      <c r="U119" s="245"/>
-      <c r="V119" s="245"/>
-      <c r="W119" s="247" t="s">
+      <c r="T119" s="308"/>
+      <c r="U119" s="308"/>
+      <c r="V119" s="308"/>
+      <c r="W119" s="278" t="s">
         <v>184</v>
       </c>
       <c r="X119" s="233"/>
@@ -16787,35 +16787,35 @@
       <c r="AG119" s="233"/>
       <c r="AH119" s="233"/>
     </row>
-    <row r="120" spans="5:34">
+    <row r="120" spans="5:34" x14ac:dyDescent="0.15">
       <c r="E120" s="41">
         <v>16</v>
       </c>
-      <c r="F120" s="243" t="s">
+      <c r="F120" s="307" t="s">
         <v>185</v>
       </c>
-      <c r="G120" s="243"/>
-      <c r="H120" s="243"/>
-      <c r="I120" s="243"/>
-      <c r="J120" s="248"/>
-      <c r="K120" s="244" t="s">
+      <c r="G120" s="307"/>
+      <c r="H120" s="307"/>
+      <c r="I120" s="307"/>
+      <c r="J120" s="309"/>
+      <c r="K120" s="298" t="s">
         <v>186</v>
       </c>
-      <c r="L120" s="244"/>
-      <c r="M120" s="244"/>
-      <c r="N120" s="245" t="s">
+      <c r="L120" s="298"/>
+      <c r="M120" s="298"/>
+      <c r="N120" s="308" t="s">
         <v>111</v>
       </c>
-      <c r="O120" s="245"/>
-      <c r="P120" s="245"/>
-      <c r="Q120" s="245"/>
-      <c r="R120" s="245"/>
-      <c r="S120" s="245" t="s">
+      <c r="O120" s="308"/>
+      <c r="P120" s="308"/>
+      <c r="Q120" s="308"/>
+      <c r="R120" s="308"/>
+      <c r="S120" s="308" t="s">
         <v>187</v>
       </c>
-      <c r="T120" s="245"/>
-      <c r="U120" s="245"/>
-      <c r="V120" s="245"/>
+      <c r="T120" s="308"/>
+      <c r="U120" s="308"/>
+      <c r="V120" s="308"/>
       <c r="W120" s="233" t="s">
         <v>188</v>
       </c>
@@ -16831,88 +16831,88 @@
       <c r="AG120" s="233"/>
       <c r="AH120" s="233"/>
     </row>
-    <row r="121" spans="5:34" ht="67.5" customHeight="1">
+    <row r="121" spans="5:34" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E121" s="41">
         <v>17</v>
       </c>
-      <c r="F121" s="243" t="s">
+      <c r="F121" s="307" t="s">
         <v>189</v>
       </c>
-      <c r="G121" s="243"/>
-      <c r="H121" s="243"/>
-      <c r="I121" s="243"/>
-      <c r="J121" s="244" t="s">
+      <c r="G121" s="307"/>
+      <c r="H121" s="307"/>
+      <c r="I121" s="307"/>
+      <c r="J121" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="K121" s="244"/>
-      <c r="L121" s="244"/>
-      <c r="M121" s="244"/>
-      <c r="N121" s="245" t="s">
+      <c r="K121" s="298"/>
+      <c r="L121" s="298"/>
+      <c r="M121" s="298"/>
+      <c r="N121" s="308" t="s">
         <v>111</v>
       </c>
-      <c r="O121" s="245"/>
-      <c r="P121" s="245"/>
-      <c r="Q121" s="245"/>
-      <c r="R121" s="245"/>
-      <c r="S121" s="246" t="s">
+      <c r="O121" s="308"/>
+      <c r="P121" s="308"/>
+      <c r="Q121" s="308"/>
+      <c r="R121" s="308"/>
+      <c r="S121" s="255" t="s">
         <v>191</v>
       </c>
-      <c r="T121" s="246"/>
-      <c r="U121" s="246"/>
-      <c r="V121" s="246"/>
-      <c r="W121" s="247" t="s">
+      <c r="T121" s="255"/>
+      <c r="U121" s="255"/>
+      <c r="V121" s="255"/>
+      <c r="W121" s="278" t="s">
         <v>222</v>
       </c>
-      <c r="X121" s="247"/>
-      <c r="Y121" s="247"/>
-      <c r="Z121" s="247"/>
-      <c r="AA121" s="247"/>
-      <c r="AB121" s="247"/>
-      <c r="AC121" s="247"/>
+      <c r="X121" s="278"/>
+      <c r="Y121" s="278"/>
+      <c r="Z121" s="278"/>
+      <c r="AA121" s="278"/>
+      <c r="AB121" s="278"/>
+      <c r="AC121" s="278"/>
       <c r="AD121" s="233"/>
       <c r="AE121" s="233"/>
       <c r="AF121" s="233"/>
       <c r="AG121" s="233"/>
       <c r="AH121" s="233"/>
     </row>
-    <row r="122" spans="5:34" ht="67.5" customHeight="1">
+    <row r="122" spans="5:34" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E122" s="41">
         <v>18</v>
       </c>
-      <c r="F122" s="243" t="s">
+      <c r="F122" s="307" t="s">
         <v>192</v>
       </c>
-      <c r="G122" s="243"/>
-      <c r="H122" s="243"/>
-      <c r="I122" s="243"/>
-      <c r="J122" s="244" t="s">
+      <c r="G122" s="307"/>
+      <c r="H122" s="307"/>
+      <c r="I122" s="307"/>
+      <c r="J122" s="298" t="s">
         <v>193</v>
       </c>
-      <c r="K122" s="244"/>
-      <c r="L122" s="244"/>
-      <c r="M122" s="244"/>
-      <c r="N122" s="245" t="s">
+      <c r="K122" s="298"/>
+      <c r="L122" s="298"/>
+      <c r="M122" s="298"/>
+      <c r="N122" s="308" t="s">
         <v>111</v>
       </c>
-      <c r="O122" s="245"/>
-      <c r="P122" s="245"/>
-      <c r="Q122" s="245"/>
-      <c r="R122" s="245"/>
-      <c r="S122" s="246" t="s">
+      <c r="O122" s="308"/>
+      <c r="P122" s="308"/>
+      <c r="Q122" s="308"/>
+      <c r="R122" s="308"/>
+      <c r="S122" s="255" t="s">
         <v>194</v>
       </c>
-      <c r="T122" s="246"/>
-      <c r="U122" s="246"/>
-      <c r="V122" s="246"/>
-      <c r="W122" s="247" t="s">
+      <c r="T122" s="255"/>
+      <c r="U122" s="255"/>
+      <c r="V122" s="255"/>
+      <c r="W122" s="278" t="s">
         <v>222</v>
       </c>
-      <c r="X122" s="247"/>
-      <c r="Y122" s="247"/>
-      <c r="Z122" s="247"/>
-      <c r="AA122" s="247"/>
-      <c r="AB122" s="247"/>
-      <c r="AC122" s="247"/>
+      <c r="X122" s="278"/>
+      <c r="Y122" s="278"/>
+      <c r="Z122" s="278"/>
+      <c r="AA122" s="278"/>
+      <c r="AB122" s="278"/>
+      <c r="AC122" s="278"/>
       <c r="AD122" s="233"/>
       <c r="AE122" s="233"/>
       <c r="AF122" s="233"/>
@@ -16921,22 +16921,206 @@
     </row>
   </sheetData>
   <mergeCells count="243">
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="K19:AH19"/>
-    <mergeCell ref="K20:AH20"/>
-    <mergeCell ref="K21:AH21"/>
-    <mergeCell ref="K22:AH22"/>
-    <mergeCell ref="K23:AH23"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="S114:V114"/>
+    <mergeCell ref="F121:I121"/>
+    <mergeCell ref="J121:M121"/>
+    <mergeCell ref="N121:R121"/>
+    <mergeCell ref="S121:V121"/>
+    <mergeCell ref="W121:AC121"/>
+    <mergeCell ref="AD121:AH121"/>
+    <mergeCell ref="AD120:AH120"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="J116:M116"/>
+    <mergeCell ref="N116:R116"/>
+    <mergeCell ref="S116:V116"/>
+    <mergeCell ref="W116:AC116"/>
+    <mergeCell ref="AD116:AH116"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="J117:M117"/>
+    <mergeCell ref="N117:R117"/>
+    <mergeCell ref="S117:V117"/>
+    <mergeCell ref="W117:AC117"/>
+    <mergeCell ref="AD117:AH117"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:R122"/>
+    <mergeCell ref="S122:V122"/>
+    <mergeCell ref="W122:AC122"/>
+    <mergeCell ref="AD122:AH122"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="J118:J120"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="N118:R118"/>
+    <mergeCell ref="S118:V118"/>
+    <mergeCell ref="W118:AC118"/>
+    <mergeCell ref="AD118:AH118"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="K119:M119"/>
+    <mergeCell ref="N119:R119"/>
+    <mergeCell ref="S119:V119"/>
+    <mergeCell ref="W119:AC119"/>
+    <mergeCell ref="AD119:AH119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="N120:R120"/>
+    <mergeCell ref="S120:V120"/>
+    <mergeCell ref="W120:AC120"/>
+    <mergeCell ref="W114:AC114"/>
+    <mergeCell ref="AD114:AH114"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="J115:M115"/>
+    <mergeCell ref="N115:R115"/>
+    <mergeCell ref="S115:V115"/>
+    <mergeCell ref="W115:AC115"/>
+    <mergeCell ref="AD115:AH115"/>
+    <mergeCell ref="E111:AH111"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="J112:M112"/>
+    <mergeCell ref="N112:R112"/>
+    <mergeCell ref="S112:V112"/>
+    <mergeCell ref="W112:AC112"/>
+    <mergeCell ref="AD112:AH112"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:R113"/>
+    <mergeCell ref="S113:V113"/>
+    <mergeCell ref="W113:AC113"/>
+    <mergeCell ref="AD113:AH113"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="J114:M114"/>
+    <mergeCell ref="N114:R114"/>
+    <mergeCell ref="J106:M106"/>
+    <mergeCell ref="J107:M107"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="J109:M109"/>
+    <mergeCell ref="N109:R109"/>
+    <mergeCell ref="S109:V109"/>
+    <mergeCell ref="W109:AC109"/>
+    <mergeCell ref="AD109:AH109"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="J110:M110"/>
+    <mergeCell ref="N110:R110"/>
+    <mergeCell ref="S110:V110"/>
+    <mergeCell ref="W110:AC110"/>
+    <mergeCell ref="AD110:AH110"/>
+    <mergeCell ref="S107:V107"/>
+    <mergeCell ref="W107:AC107"/>
+    <mergeCell ref="AD107:AH107"/>
+    <mergeCell ref="N106:R106"/>
+    <mergeCell ref="S106:V106"/>
+    <mergeCell ref="W106:AC106"/>
+    <mergeCell ref="AD106:AH106"/>
+    <mergeCell ref="N107:R107"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="O83:AB83"/>
+    <mergeCell ref="E103:AH103"/>
+    <mergeCell ref="W101:AC102"/>
+    <mergeCell ref="N102:R102"/>
+    <mergeCell ref="S102:V102"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:R108"/>
+    <mergeCell ref="S108:V108"/>
+    <mergeCell ref="W108:AC108"/>
+    <mergeCell ref="AD108:AH108"/>
+    <mergeCell ref="N104:R104"/>
+    <mergeCell ref="S104:V104"/>
+    <mergeCell ref="W104:AC104"/>
+    <mergeCell ref="AD104:AH104"/>
+    <mergeCell ref="F104:I104"/>
+    <mergeCell ref="F105:I105"/>
+    <mergeCell ref="F106:I106"/>
+    <mergeCell ref="F107:I107"/>
+    <mergeCell ref="J104:M104"/>
+    <mergeCell ref="J105:M105"/>
+    <mergeCell ref="O53:AB53"/>
+    <mergeCell ref="E58:N58"/>
+    <mergeCell ref="O58:X58"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="O82:AB82"/>
+    <mergeCell ref="O59:X59"/>
+    <mergeCell ref="O60:X60"/>
+    <mergeCell ref="O61:X61"/>
+    <mergeCell ref="O62:X62"/>
+    <mergeCell ref="O63:X63"/>
+    <mergeCell ref="O64:X64"/>
+    <mergeCell ref="O65:X65"/>
+    <mergeCell ref="O66:X66"/>
+    <mergeCell ref="O67:X67"/>
+    <mergeCell ref="O68:X68"/>
+    <mergeCell ref="O69:X69"/>
+    <mergeCell ref="O70:X70"/>
+    <mergeCell ref="O71:X71"/>
+    <mergeCell ref="O72:X72"/>
+    <mergeCell ref="O73:X73"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:L96"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="N101:V101"/>
+    <mergeCell ref="O32:AH32"/>
+    <mergeCell ref="Y48:AB48"/>
+    <mergeCell ref="Y49:AB49"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="O52:AB52"/>
+    <mergeCell ref="AD101:AH102"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="L38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="K8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:AH13"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:AH12"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="N105:R105"/>
     <mergeCell ref="S105:V105"/>
     <mergeCell ref="W105:AC105"/>
@@ -16961,209 +17145,25 @@
     <mergeCell ref="L49:U49"/>
     <mergeCell ref="V49:X49"/>
     <mergeCell ref="L39:U39"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="K8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="V8:AH9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:AH13"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:AH12"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="K19:AH19"/>
+    <mergeCell ref="K20:AH20"/>
+    <mergeCell ref="K21:AH21"/>
+    <mergeCell ref="K22:AH22"/>
+    <mergeCell ref="K23:AH23"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G32:L32"/>
     <mergeCell ref="M32:N32"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:L96"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="N101:V101"/>
-    <mergeCell ref="O32:AH32"/>
-    <mergeCell ref="Y48:AB48"/>
-    <mergeCell ref="Y49:AB49"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="O52:AB52"/>
-    <mergeCell ref="AD101:AH102"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="L38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:AB53"/>
-    <mergeCell ref="E58:N58"/>
-    <mergeCell ref="O58:X58"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="O82:AB82"/>
-    <mergeCell ref="O59:X59"/>
-    <mergeCell ref="O60:X60"/>
-    <mergeCell ref="O61:X61"/>
-    <mergeCell ref="O62:X62"/>
-    <mergeCell ref="O63:X63"/>
-    <mergeCell ref="O64:X64"/>
-    <mergeCell ref="O65:X65"/>
-    <mergeCell ref="O66:X66"/>
-    <mergeCell ref="O67:X67"/>
-    <mergeCell ref="O68:X68"/>
-    <mergeCell ref="O69:X69"/>
-    <mergeCell ref="O70:X70"/>
-    <mergeCell ref="O71:X71"/>
-    <mergeCell ref="O72:X72"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="O83:AB83"/>
-    <mergeCell ref="E103:AH103"/>
-    <mergeCell ref="W101:AC102"/>
-    <mergeCell ref="N102:R102"/>
-    <mergeCell ref="S102:V102"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:R108"/>
-    <mergeCell ref="S108:V108"/>
-    <mergeCell ref="W108:AC108"/>
-    <mergeCell ref="AD108:AH108"/>
-    <mergeCell ref="N104:R104"/>
-    <mergeCell ref="S104:V104"/>
-    <mergeCell ref="W104:AC104"/>
-    <mergeCell ref="AD104:AH104"/>
-    <mergeCell ref="F104:I104"/>
-    <mergeCell ref="F105:I105"/>
-    <mergeCell ref="F106:I106"/>
-    <mergeCell ref="F107:I107"/>
-    <mergeCell ref="J104:M104"/>
-    <mergeCell ref="J105:M105"/>
-    <mergeCell ref="J106:M106"/>
-    <mergeCell ref="J107:M107"/>
-    <mergeCell ref="F109:I109"/>
-    <mergeCell ref="J109:M109"/>
-    <mergeCell ref="N109:R109"/>
-    <mergeCell ref="S109:V109"/>
-    <mergeCell ref="W109:AC109"/>
-    <mergeCell ref="AD109:AH109"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="J110:M110"/>
-    <mergeCell ref="N110:R110"/>
-    <mergeCell ref="S110:V110"/>
-    <mergeCell ref="W110:AC110"/>
-    <mergeCell ref="AD110:AH110"/>
-    <mergeCell ref="S107:V107"/>
-    <mergeCell ref="W107:AC107"/>
-    <mergeCell ref="AD107:AH107"/>
-    <mergeCell ref="N106:R106"/>
-    <mergeCell ref="S106:V106"/>
-    <mergeCell ref="W106:AC106"/>
-    <mergeCell ref="AD106:AH106"/>
-    <mergeCell ref="N107:R107"/>
-    <mergeCell ref="W114:AC114"/>
-    <mergeCell ref="AD114:AH114"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="J115:M115"/>
-    <mergeCell ref="N115:R115"/>
-    <mergeCell ref="S115:V115"/>
-    <mergeCell ref="W115:AC115"/>
-    <mergeCell ref="AD115:AH115"/>
-    <mergeCell ref="E111:AH111"/>
-    <mergeCell ref="F112:I112"/>
-    <mergeCell ref="J112:M112"/>
-    <mergeCell ref="N112:R112"/>
-    <mergeCell ref="S112:V112"/>
-    <mergeCell ref="W112:AC112"/>
-    <mergeCell ref="AD112:AH112"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:R113"/>
-    <mergeCell ref="S113:V113"/>
-    <mergeCell ref="W113:AC113"/>
-    <mergeCell ref="AD113:AH113"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:R122"/>
-    <mergeCell ref="S122:V122"/>
-    <mergeCell ref="W122:AC122"/>
-    <mergeCell ref="AD122:AH122"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="J118:J120"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="N118:R118"/>
-    <mergeCell ref="S118:V118"/>
-    <mergeCell ref="W118:AC118"/>
-    <mergeCell ref="AD118:AH118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="K119:M119"/>
-    <mergeCell ref="N119:R119"/>
-    <mergeCell ref="S119:V119"/>
-    <mergeCell ref="W119:AC119"/>
-    <mergeCell ref="AD119:AH119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="N120:R120"/>
-    <mergeCell ref="S120:V120"/>
-    <mergeCell ref="W120:AC120"/>
-    <mergeCell ref="O73:X73"/>
-    <mergeCell ref="F121:I121"/>
-    <mergeCell ref="J121:M121"/>
-    <mergeCell ref="N121:R121"/>
-    <mergeCell ref="S121:V121"/>
-    <mergeCell ref="W121:AC121"/>
-    <mergeCell ref="AD121:AH121"/>
-    <mergeCell ref="AD120:AH120"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="J116:M116"/>
-    <mergeCell ref="N116:R116"/>
-    <mergeCell ref="S116:V116"/>
-    <mergeCell ref="W116:AC116"/>
-    <mergeCell ref="AD116:AH116"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="J117:M117"/>
-    <mergeCell ref="N117:R117"/>
-    <mergeCell ref="S117:V117"/>
-    <mergeCell ref="W117:AC117"/>
-    <mergeCell ref="AD117:AH117"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="J114:M114"/>
-    <mergeCell ref="N114:R114"/>
-    <mergeCell ref="S114:V114"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="3">
@@ -17199,42 +17199,42 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="97" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="98" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="99" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="99" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="99" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="99" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="99" t="s">
         <v>62</v>
       </c>
